--- a/data/snowballing/study_set_27.xlsx
+++ b/data/snowballing/study_set_27.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzinger\Documents\data\data\snowballing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4C906-AF7D-4B3C-BECA-B4EBDFF1B243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFED5A9-5500-4912-A790-BE6EB2935194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="537">
   <si>
     <t>record_id</t>
   </si>
@@ -788,9 +788,6 @@
     <t>https://doi.org/10.1257/0002828053828518</t>
   </si>
   <si>
-    <t>maybe relevant, probably simulation</t>
-  </si>
-  <si>
     <t>BWTHLEVX</t>
   </si>
   <si>
@@ -845,6 +842,9 @@
     <t>Braun_2023_identification</t>
   </si>
   <si>
+    <t>dr</t>
+  </si>
+  <si>
     <t>TPWQ4JHS</t>
   </si>
   <si>
@@ -857,6 +857,9 @@
     <t>"Marco Fanno" Working Papers</t>
   </si>
   <si>
+    <t>workingPaper</t>
+  </si>
+  <si>
     <t>We propose a novel identification strategy based on a combination of sign, zero, and policy coefficient restrictions to identify the exchange rate response to a US monetary policy shock. Our strategy crucially hinges upon imposing a sign on the policy response to exchange rate fluctuations, i.e., monetary policy tightens after a depreciation of the US dollar. We support this restriction with narrative evidence as well as empirical evidence from the extant literature. We find an unexpected increase in the policy rate to generate an immediate appreciation followed by a persistent depreciation. This evidence is consistent with the overshooting hypothesis. Importantly, we show that our identification strategy implies robust impulse responses across samples characterized by different monetary policy conducts. Differently, restrictions imposed only on impulse responses return evidence that is subsample specific and associate Volckerâ€™s regime with a delayed overshooting.</t>
   </si>
   <si>
@@ -866,6 +869,9 @@
     <t>Castelnuovo_2022_delayed</t>
   </si>
   <si>
+    <t>"event": true?</t>
+  </si>
+  <si>
     <t>8E9TIRTP</t>
   </si>
   <si>
@@ -944,6 +950,9 @@
     <t>https://doi.org/10.1162/rest_a_00778</t>
   </si>
   <si>
+    <t>shock_size_unclear</t>
+  </si>
+  <si>
     <t>WBK35VUD</t>
   </si>
   <si>
@@ -989,7 +998,10 @@
     <t>Flodén_2021_household</t>
   </si>
   <si>
-    <t>dr</t>
+    <t>https://doi.org/10.1093/ej/ueaa135</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>UMV28WAE</t>
@@ -1013,6 +1025,9 @@
     <t>Granziera_2018_inference</t>
   </si>
   <si>
+    <t>https://doi.org/10.3982/QE978</t>
+  </si>
+  <si>
     <t>effect_size_unclear</t>
   </si>
   <si>
@@ -1037,6 +1052,9 @@
     <t>Ahn_2021_identifying</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.econmod.2022.105803</t>
+  </si>
+  <si>
     <t>non_english</t>
   </si>
   <si>
@@ -1058,6 +1076,9 @@
     <t>Arias_2018_inference</t>
   </si>
   <si>
+    <t>https://doi.org/10.3982/ECTA14468</t>
+  </si>
+  <si>
     <t>8FIFRGSD</t>
   </si>
   <si>
@@ -1076,6 +1097,9 @@
     <t>Giacomini_2022_robust</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.jeconom.2021.02.003</t>
+  </si>
+  <si>
     <t>wong_shock_variable</t>
   </si>
   <si>
@@ -1103,6 +1127,9 @@
     <t>Alves_2020_a</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/jmcb.12761</t>
+  </si>
+  <si>
     <t>TLFS89DJ</t>
   </si>
   <si>
@@ -1127,6 +1154,9 @@
     <t>Ballantyne_2020_martin</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/1475-4932.12531</t>
+  </si>
+  <si>
     <t>S8WNJ8J4</t>
   </si>
   <si>
@@ -1145,6 +1175,9 @@
     <t>Ludvigson_2017_shock</t>
   </si>
   <si>
+    <t>https://www.nber.org/system/files/working_papers/w23225/w23225.pdf</t>
+  </si>
+  <si>
     <t>34M69PF7</t>
   </si>
   <si>
@@ -1163,6 +1196,9 @@
     <t>Antolin-Diaz_2018_narrative</t>
   </si>
   <si>
+    <t>https://www.aeaweb.org/articles/pdf/doi/10.1257/aer.20161852</t>
+  </si>
+  <si>
     <t>WY36XGDK</t>
   </si>
   <si>
@@ -1187,6 +1223,9 @@
     <t>Jordà; Schularick_2020_the</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.jmoneco.2019.01.021</t>
+  </si>
+  <si>
     <t>interest_rate_diff?; "dep": log_a? or logdiff_a?; "eglob": true?;</t>
   </si>
   <si>
@@ -1202,6 +1241,9 @@
     <t>NBER Chapters</t>
   </si>
   <si>
+    <t>bookSection</t>
+  </si>
+  <si>
     <t>Romer and Romer (1989,1990,1992) identify dates where the Federal Reserve appears to have shifted its policy towards reducing the rate of inflation. This paper examines the economic context that drives this decision. It finds that the Fed appears to weigh the outlook for unemployment as well as that for inflation in making its decision about disinflation. Previous work has not examined the course of inflation over the disinflations. This paper finds responses of the inflation rate to the "disinflations" only in a specification where the effects of the policy are presumed to be permanent Moreover, the Volcker disinflation is found to be the only "disinflation" to reduce inflation permanently. The disinflation after the 1973 OPEC price increases was effective, but only temporarily. Other disinflations had negligible impacts on the rate of inflation over all horizons. Variables measuring the expected present discounted values of unemployment and inflation are constructed. These variables are used in a discrete-choice model to explain the Fed's decision to disinflate. This model does a fairly good job of explaining the Fed's decisions. Both inflation and unemployment drive the Fed's decision. For some episodes, notably in the 1970's, inflation is the main variable driving the decision. In the 1969 and 1988 episodes, unemployment matters more.&lt;br&gt;&lt;small&gt;(This abstract was borrowed from another version of this item.)&lt;/small&gt;</t>
   </si>
   <si>
@@ -1211,6 +1253,9 @@
     <t>Shapiro_1994_federal</t>
   </si>
   <si>
+    <t>https://www.nber.org/system/files/chapters/c8336/c8336.pdf</t>
+  </si>
+  <si>
     <t>NZWTD67F</t>
   </si>
   <si>
@@ -1223,9 +1268,6 @@
     <t>Advances in Economics and Econometrics: Eleventh World Congress</t>
   </si>
   <si>
-    <t>bookSection</t>
-  </si>
-  <si>
     <t>This chapter highlights some key issues in the use of sign restrictions for the purpose of identifying shocks. It does so by examining two benchmark examples. In the first part, I discuss a generic example of demand and supply, seeking to identify a supply shock from price–quantity data. In the second part, I discuss a generic example of Bayesian vector autoregressions and the identification of a monetary supply shock. Along the way, I formulate some principles and present my view on some of the recent discussion and literature regarding sign restrictions.INTRODUCTIONThe approach of sign restrictions in time series analysis has generated an active literature, many successful applications, and a lively debate. The procedures are increasingly easy to use, with implementations in econometric software packages such as RATS or with ready-to-implement code in a variety of programming languages; see, e.g., Danne (2015) as one example. Let me say from the outset that I am very happy about that, including those contributions that have criticized my own work, sometimes sharply. Skepticism and critique is crucial for science to advance, so all power to them! That should not prevent me from critiquing back, of course, and that is partly what this chapter will be about. Debate is good.While Leamer (1981) surely deserves being highlighted here, I believe that the literature pretty much started with Dwyer (1998), Faust (1998) and its discussion, Uhlig (1998), Canova and Pina (1999), Canova and de Nicolo (2002), as well as my “agnostic identification” paper Uhlig (2005b). This one was published quite a number of years after my discussion of the Faust paper, but that discussion shows that I had already developed my methodology then, and that imposing sign restrictions on impulse responses and not just on impact can add considerable bite. There are deep connections to the seemingly different literature on partial identification and estimation subject to inequality restrictions: rather than review that literature, let me just point the reader to the excellent discussions on this topic by Canay and Shaikh (2017) as well as by Ho and Rosen (2017), appearing elsewhere in this volume, or, say, Kline and Tamer (2016).</t>
   </si>
   <si>
@@ -1235,6 +1277,9 @@
     <t>Uhlig_2017_shocks</t>
   </si>
   <si>
+    <t>http://home.uchicago.edu/huhlig/papers/Uhlig.ShocksSignsRestrictandIden_Honore_et_al_Uhlig_Nov2017.pdf</t>
+  </si>
+  <si>
     <t>4JZCCWXI</t>
   </si>
   <si>
@@ -1250,6 +1295,9 @@
     <t>Arias_2021_inference</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.jeconom.2020.12.004</t>
+  </si>
+  <si>
     <t>QMJ6M82V</t>
   </si>
   <si>
@@ -1268,6 +1316,9 @@
     <t>Gürkaynak_2007_marketbased</t>
   </si>
   <si>
+    <t>https://doi.org/10.1198/073500106000000387</t>
+  </si>
+  <si>
     <t>D9FTVUYP</t>
   </si>
   <si>
@@ -1301,6 +1352,9 @@
     <t>Giacomini_2021_robust</t>
   </si>
   <si>
+    <t>https://www.econstor.eu/bitstream/10419/251005/1/wp2021-11-pdf.pdf</t>
+  </si>
+  <si>
     <t>96ST2TPE</t>
   </si>
   <si>
@@ -1322,6 +1376,9 @@
     <t>Fisher_2023_systematic</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.econmod.2023.106519</t>
+  </si>
+  <si>
     <t>"eglob": false?</t>
   </si>
   <si>
@@ -1346,6 +1403,9 @@
     <t>Bauer_2015_nominal</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/jmcb.12177</t>
+  </si>
+  <si>
     <t>JV2CYE3Q</t>
   </si>
   <si>
@@ -1364,6 +1424,9 @@
     <t>Ramey_2022_postscript</t>
   </si>
   <si>
+    <t>https://econweb.ucsd.edu/~vramey/research/HOM_Ramey_Postscript.pdf</t>
+  </si>
+  <si>
     <t>no_original_estimate</t>
   </si>
   <si>
@@ -1385,7 +1448,7 @@
     <t>Dungey_2000_a</t>
   </si>
   <si>
-    <t>shock_size_unclear</t>
+    <t>https://doi.org/10.1111/j.1475-4932.2000.tb00030.x</t>
   </si>
   <si>
     <t>IA3UZR7J</t>
@@ -1409,6 +1472,9 @@
     <t>Soenen_2022_ecb</t>
   </si>
   <si>
+    <t>https://doi.org/10.1016/j.jimonfin.2021.102571</t>
+  </si>
+  <si>
     <t>TTFYG4XL</t>
   </si>
   <si>
@@ -1424,6 +1490,9 @@
     <t>Dungey_2009_extending</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/j.1475-4932.2008.00525.x</t>
+  </si>
+  <si>
     <t>4JEU82IT</t>
   </si>
   <si>
@@ -1442,6 +1511,9 @@
     <t>Aeimit Lakdawala; Rajeswari Sengupta_2021_measuring</t>
   </si>
   <si>
+    <t>http://www.igidr.ac.in/pdf/publication/_WP-2021-021.pdf</t>
+  </si>
+  <si>
     <t>excluded: path factor?, convent?, pure rate shock?</t>
   </si>
   <si>
@@ -1466,6 +1538,9 @@
     <t>Wieland_2020_financial</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/jmcb.12681</t>
+  </si>
+  <si>
     <t>WLAS7CTI</t>
   </si>
   <si>
@@ -1484,6 +1559,9 @@
     <t>Lawson_2008_a</t>
   </si>
   <si>
+    <t>https://rba.gov.au/publications/rdp/2008/2008-01/sec-aus-economy.html</t>
+  </si>
+  <si>
     <t>YMGEQSQA</t>
   </si>
   <si>
@@ -1505,6 +1583,9 @@
     <t>BIANCHI_2022_monetary</t>
   </si>
   <si>
+    <t>https://doi.org/10.1111/jofi.13107</t>
+  </si>
+  <si>
     <t>X8PD5S6G</t>
   </si>
   <si>
@@ -1523,6 +1604,9 @@
     <t>Kiyotaki_1997_credit</t>
   </si>
   <si>
+    <t>https://doi.org/10.1086/262072</t>
+  </si>
+  <si>
     <t>6BUYWCSV</t>
   </si>
   <si>
@@ -1538,6 +1622,9 @@
     <t>Bernanke_1998_measuring</t>
   </si>
   <si>
+    <t>https://doi.org/10.1162/003355398555775</t>
+  </si>
+  <si>
     <t>no_comparable_effect_sizes</t>
   </si>
   <si>
@@ -1550,103 +1637,16 @@
     <t>Bayesian Macroeconometrics</t>
   </si>
   <si>
+    <t>handbook</t>
+  </si>
+  <si>
     <t>This article presents the challenges that arise since macroeconomists often work in data-rich environments. It emphasizes multivariate models that can capture the co-movements of macroeconomic time series analysis. It discusses vector autoregressive (VAR) models distinguishing between reduced-form and structural VARs. Reduced-form VARs summarize the autocovariance properties of the data and provide a useful forecasting tool. The article shows how Bayesian methods have been empirically successful in responding to these challenges. It also encounters dynamic stochastic general equilibrium (DSGE) models that potentially differ in their economic implications. With posterior model probabilities, inference and decisions can be based on model averages. This article discusses inference with linearized as well as nonlinear DSGE models and reviews various approaches for evaluating the empirical fit of DSGE models. It concludes with a discussion of model uncertainty and decision-making with multiple models.</t>
   </si>
   <si>
     <t>del Negro_2011_bayesian</t>
   </si>
   <si>
-    <t>workingPaper</t>
-  </si>
-  <si>
-    <t>handbook</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.econmod.2022.105803</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3982/QE978</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1093/ej/ueaa135</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.3982/ECTA14468</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jeconom.2021.02.003</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/jmcb.12761</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/1475-4932.12531</t>
-  </si>
-  <si>
-    <t>https://www.nber.org/system/files/working_papers/w23225/w23225.pdf</t>
-  </si>
-  <si>
-    <t>https://www.aeaweb.org/articles/pdf/doi/10.1257/aer.20161852</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jmoneco.2019.01.021</t>
-  </si>
-  <si>
-    <t>https://www.nber.org/system/files/chapters/c8336/c8336.pdf</t>
-  </si>
-  <si>
-    <t>http://home.uchicago.edu/huhlig/papers/Uhlig.ShocksSignsRestrictandIden_Honore_et_al_Uhlig_Nov2017.pdf</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jeconom.2020.12.004</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1198/073500106000000387</t>
-  </si>
-  <si>
-    <t>https://www.econstor.eu/bitstream/10419/251005/1/wp2021-11-pdf.pdf</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.econmod.2023.106519</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/jmcb.12177</t>
-  </si>
-  <si>
-    <t>https://econweb.ucsd.edu/~vramey/research/HOM_Ramey_Postscript.pdf</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1475-4932.2000.tb00030.x</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.jimonfin.2021.102571</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/j.1475-4932.2008.00525.x</t>
-  </si>
-  <si>
-    <t>http://www.igidr.ac.in/pdf/publication/_WP-2021-021.pdf</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/jmcb.12681</t>
-  </si>
-  <si>
-    <t>https://rba.gov.au/publications/rdp/2008/2008-01/sec-aus-economy.html</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1111/jofi.13107</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1086/262072</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1162/003355398555775</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093/oxfordhb/9780199559084.013.0008</t>
-  </si>
-  <si>
-    <t>"event": true?</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1715,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1730,17 +1731,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2127,16 +2125,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="10"/>
+    <col min="1" max="1" width="10.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2176,75 +2174,75 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AI1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>197</v>
       </c>
       <c r="B2" t="s">
@@ -2286,32 +2284,32 @@
       <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="5">
         <v>45261</v>
       </c>
       <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2">
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3">
         <v>0</v>
       </c>
       <c r="X2" t="s">
@@ -2320,14 +2318,14 @@
       <c r="Y2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
       <c r="AH2">
         <v>1</v>
       </c>
@@ -2335,8 +2333,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>245</v>
       </c>
       <c r="B3" t="s">
@@ -2371,54 +2369,54 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="5">
         <v>45261</v>
       </c>
       <c r="T3" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2"/>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3"/>
       <c r="Y3" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
       <c r="AF3" t="s">
         <v>54</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AG3" s="3">
         <v>1</v>
       </c>
       <c r="AH3">
@@ -2428,8 +2426,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>136</v>
       </c>
       <c r="B4" t="s">
@@ -2469,32 +2467,32 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="5">
         <v>45261</v>
       </c>
       <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2">
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3">
         <v>0</v>
       </c>
       <c r="X4" t="s">
@@ -2503,14 +2501,14 @@
       <c r="Y4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
       <c r="AH4">
         <v>1</v>
       </c>
@@ -2518,8 +2516,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>188</v>
       </c>
       <c r="B5" t="s">
@@ -2561,34 +2559,34 @@
       <c r="M5" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
       <c r="R5" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="5">
         <v>45261</v>
       </c>
       <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="3">
         <v>0</v>
       </c>
       <c r="V5" t="s">
         <v>74</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="3">
         <v>0</v>
       </c>
       <c r="X5" t="s">
@@ -2597,14 +2595,14 @@
       <c r="Y5" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
       <c r="AH5">
         <v>1</v>
       </c>
@@ -2612,8 +2610,8 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>83</v>
       </c>
       <c r="B6" t="s">
@@ -2653,32 +2651,32 @@
       <c r="M6" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3" t="s">
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="5">
         <v>45261</v>
       </c>
       <c r="T6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2">
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3">
         <v>0</v>
       </c>
       <c r="X6" t="s">
@@ -2687,14 +2685,14 @@
       <c r="Y6" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
       <c r="AH6">
         <v>1</v>
       </c>
@@ -2702,8 +2700,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>165</v>
       </c>
       <c r="B7" t="s">
@@ -2742,48 +2740,48 @@
       <c r="M7" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="5">
         <v>45261</v>
       </c>
       <c r="T7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2">
-        <v>1</v>
-      </c>
-      <c r="X7" s="6" t="s">
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Y7" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
       <c r="AH7">
         <v>1</v>
       </c>
@@ -2791,8 +2789,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>192</v>
       </c>
       <c r="B8" t="s">
@@ -2835,32 +2833,32 @@
       <c r="M8" t="s">
         <v>105</v>
       </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="5">
         <v>45261</v>
       </c>
       <c r="T8" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3">
         <v>0</v>
       </c>
       <c r="X8" t="s">
@@ -2869,14 +2867,14 @@
       <c r="Y8" t="s">
         <v>45</v>
       </c>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
       <c r="AH8">
         <v>1</v>
       </c>
@@ -2884,8 +2882,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>200</v>
       </c>
       <c r="B9" t="s">
@@ -2921,56 +2919,56 @@
       <c r="K9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>113</v>
       </c>
       <c r="M9" t="s">
         <v>114</v>
       </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="5">
         <v>45261</v>
       </c>
       <c r="T9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="3">
         <v>0</v>
       </c>
       <c r="V9" t="s">
         <v>74</v>
       </c>
-      <c r="W9" s="2">
-        <v>1</v>
-      </c>
-      <c r="X9" s="2"/>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3"/>
       <c r="Y9" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
       <c r="AF9" t="s">
         <v>54</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AG9" s="3">
         <v>1</v>
       </c>
       <c r="AH9">
@@ -2980,8 +2978,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>53</v>
       </c>
       <c r="B10" t="s">
@@ -3021,32 +3019,32 @@
       <c r="M10" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="5">
         <v>45261</v>
       </c>
       <c r="T10" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" t="s">
@@ -3055,14 +3053,14 @@
       <c r="Y10" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
       <c r="AH10">
         <v>1</v>
       </c>
@@ -3070,8 +3068,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>181</v>
       </c>
       <c r="B11" t="s">
@@ -3111,32 +3109,32 @@
       <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3" t="s">
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="5">
         <v>45261</v>
       </c>
       <c r="T11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2">
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3">
         <v>0</v>
       </c>
       <c r="X11" t="s">
@@ -3145,14 +3143,14 @@
       <c r="Y11" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
       <c r="AH11">
         <v>1</v>
       </c>
@@ -3160,8 +3158,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>236</v>
       </c>
       <c r="B12" t="s">
@@ -3203,34 +3201,34 @@
       <c r="M12" t="s">
         <v>141</v>
       </c>
-      <c r="N12" s="2">
-        <v>1</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="5">
         <v>45261</v>
       </c>
       <c r="T12" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" t="s">
         <v>74</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" t="s">
@@ -3239,14 +3237,14 @@
       <c r="Y12" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
       <c r="AH12">
         <v>1</v>
       </c>
@@ -3254,8 +3252,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>119</v>
       </c>
       <c r="B13" t="s">
@@ -3295,32 +3293,32 @@
       <c r="M13" t="s">
         <v>150</v>
       </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="3" t="s">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="5">
         <v>45261</v>
       </c>
       <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3">
         <v>0</v>
       </c>
       <c r="X13" t="s">
@@ -3329,14 +3327,14 @@
       <c r="Y13" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
       <c r="AH13">
         <v>1</v>
       </c>
@@ -3344,8 +3342,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>45</v>
       </c>
       <c r="B14" t="s">
@@ -3385,32 +3383,32 @@
       <c r="M14" t="s">
         <v>160</v>
       </c>
-      <c r="N14" s="2">
-        <v>1</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="5">
         <v>45261</v>
       </c>
       <c r="T14" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" t="s">
@@ -3419,14 +3417,14 @@
       <c r="Y14" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2"/>
-      <c r="AG14" s="2"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
       <c r="AH14">
         <v>1</v>
       </c>
@@ -3434,8 +3432,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>193</v>
       </c>
       <c r="B15" t="s">
@@ -3475,32 +3473,32 @@
       <c r="M15" t="s">
         <v>170</v>
       </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="5">
         <v>45261</v>
       </c>
       <c r="T15" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" t="s">
@@ -3509,14 +3507,14 @@
       <c r="Y15" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="2"/>
-      <c r="AG15" s="2"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
       <c r="AH15">
         <v>1</v>
       </c>
@@ -3524,8 +3522,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>109</v>
       </c>
       <c r="B16" t="s">
@@ -3568,48 +3566,48 @@
       <c r="M16" t="s">
         <v>179</v>
       </c>
-      <c r="N16" s="2">
-        <v>1</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3" t="s">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="5">
         <v>45261</v>
       </c>
       <c r="T16" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2">
-        <v>1</v>
-      </c>
-      <c r="X16" s="2"/>
+      <c r="U16" s="3">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3"/>
       <c r="Y16" t="s">
         <v>45</v>
       </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
       <c r="AF16" t="s">
         <v>54</v>
       </c>
-      <c r="AG16" s="2">
+      <c r="AG16" s="3">
         <v>1</v>
       </c>
       <c r="AH16">
@@ -3619,8 +3617,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>211</v>
       </c>
       <c r="B17" t="s">
@@ -3661,32 +3659,32 @@
       <c r="M17" t="s">
         <v>188</v>
       </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="5">
         <v>45261</v>
       </c>
       <c r="T17" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3">
         <v>0</v>
       </c>
       <c r="X17" t="s">
@@ -3695,14 +3693,14 @@
       <c r="Y17" t="s">
         <v>45</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="2"/>
-      <c r="AG17" s="2"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
       <c r="AH17">
         <v>1</v>
       </c>
@@ -3710,8 +3708,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>115</v>
       </c>
       <c r="B18" t="s">
@@ -3751,32 +3749,32 @@
       <c r="M18" t="s">
         <v>197</v>
       </c>
-      <c r="N18" s="2">
-        <v>1</v>
-      </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="5">
         <v>45261</v>
       </c>
       <c r="T18" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" t="s">
@@ -3785,14 +3783,14 @@
       <c r="Y18" t="s">
         <v>45</v>
       </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="2"/>
-      <c r="AG18" s="2"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
       <c r="AH18">
         <v>1</v>
       </c>
@@ -3800,8 +3798,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>47</v>
       </c>
       <c r="B19" t="s">
@@ -3841,32 +3839,32 @@
       <c r="M19" t="s">
         <v>206</v>
       </c>
-      <c r="N19" s="2">
-        <v>1</v>
-      </c>
-      <c r="O19" s="2">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3" t="s">
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="5">
         <v>45261</v>
       </c>
       <c r="T19" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2">
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3">
         <v>0</v>
       </c>
       <c r="X19" t="s">
@@ -3875,14 +3873,14 @@
       <c r="Y19" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2"/>
-      <c r="AG19" s="2"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
       <c r="AH19">
         <v>1</v>
       </c>
@@ -3890,8 +3888,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>137</v>
       </c>
       <c r="B20" t="s">
@@ -3931,32 +3929,32 @@
       <c r="M20" t="s">
         <v>215</v>
       </c>
-      <c r="N20" s="2">
-        <v>1</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="5">
         <v>45261</v>
       </c>
       <c r="T20" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" t="s">
@@ -3965,14 +3963,14 @@
       <c r="Y20" t="s">
         <v>45</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="2"/>
-      <c r="AG20" s="2"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
       <c r="AH20">
         <v>1</v>
       </c>
@@ -3980,8 +3978,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>212</v>
       </c>
       <c r="B21" t="s">
@@ -4021,48 +4019,48 @@
       <c r="M21" t="s">
         <v>225</v>
       </c>
-      <c r="N21" s="2">
-        <v>1</v>
-      </c>
-      <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="5">
         <v>45261</v>
       </c>
       <c r="T21" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2">
-        <v>1</v>
-      </c>
-      <c r="X21" s="2"/>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3">
+        <v>1</v>
+      </c>
+      <c r="X21" s="3"/>
       <c r="Y21" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
       <c r="AF21" t="s">
         <v>54</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AG21" s="3">
         <v>1</v>
       </c>
       <c r="AH21">
@@ -4072,8 +4070,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>263</v>
       </c>
       <c r="B22" t="s">
@@ -4116,32 +4114,32 @@
       <c r="M22" t="s">
         <v>232</v>
       </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
-        <v>0</v>
-      </c>
-      <c r="P22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="5">
         <v>45261</v>
       </c>
       <c r="T22" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" t="s">
@@ -4150,14 +4148,14 @@
       <c r="Y22" t="s">
         <v>45</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="2"/>
-      <c r="AG22" s="2"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
       <c r="AH22">
         <v>1</v>
       </c>
@@ -4165,8 +4163,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>224</v>
       </c>
       <c r="B23" t="s">
@@ -4208,48 +4206,48 @@
       <c r="M23" t="s">
         <v>240</v>
       </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="5">
         <v>45261</v>
       </c>
       <c r="T23" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2">
-        <v>1</v>
-      </c>
-      <c r="X23" s="2"/>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3"/>
       <c r="Y23" t="s">
         <v>45</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
       <c r="AF23" t="s">
         <v>54</v>
       </c>
-      <c r="AG23" s="2">
+      <c r="AG23" s="3">
         <v>1</v>
       </c>
       <c r="AH23">
@@ -4259,8 +4257,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>77</v>
       </c>
       <c r="B24" t="s">
@@ -4300,46 +4298,50 @@
       <c r="M24" t="s">
         <v>248</v>
       </c>
-      <c r="N24" s="2">
-        <v>1</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="5">
         <v>45261</v>
       </c>
       <c r="T24" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="6" t="s">
-        <v>250</v>
-      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3">
+        <v>1</v>
+      </c>
+      <c r="X24" s="3"/>
       <c r="Y24" t="s">
         <v>45</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
       <c r="AH24">
         <v>1</v>
       </c>
@@ -4347,72 +4349,72 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>146</v>
       </c>
       <c r="B25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
         <v>251</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>252</v>
-      </c>
-      <c r="D25" t="s">
-        <v>253</v>
       </c>
       <c r="E25">
         <v>2021</v>
       </c>
       <c r="F25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G25" t="s">
         <v>203</v>
       </c>
       <c r="H25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
       </c>
       <c r="J25" t="s">
+        <v>255</v>
+      </c>
+      <c r="K25" t="s">
         <v>256</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>257</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>258</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" s="3">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="N25" s="2">
-        <v>1</v>
-      </c>
-      <c r="O25" s="2">
-        <v>0</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="S25" s="4">
+      <c r="S25" s="5">
         <v>45261</v>
       </c>
       <c r="T25" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3">
         <v>0</v>
       </c>
       <c r="X25" t="s">
@@ -4421,14 +4423,14 @@
       <c r="Y25" t="s">
         <v>45</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
       <c r="AH25">
         <v>1</v>
       </c>
@@ -4436,18 +4438,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>260</v>
       </c>
       <c r="B26" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" t="s">
         <v>261</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>262</v>
-      </c>
-      <c r="D26" t="s">
-        <v>263</v>
       </c>
       <c r="E26">
         <v>2023</v>
@@ -4459,62 +4461,62 @@
         <v>221</v>
       </c>
       <c r="H26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I26" t="s">
         <v>39</v>
       </c>
       <c r="J26" t="s">
+        <v>264</v>
+      </c>
+      <c r="K26" t="s">
         <v>265</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>266</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>267</v>
       </c>
-      <c r="M26" t="s">
-        <v>268</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="S26" s="4">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="S26" s="5">
         <v>45261</v>
       </c>
       <c r="T26" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="2">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2"/>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3"/>
       <c r="W26">
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3">
         <v>1</v>
       </c>
       <c r="AH26">
@@ -4524,8 +4526,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>261</v>
       </c>
       <c r="B27" t="s">
@@ -4552,64 +4554,64 @@
         <v>#N/A</v>
       </c>
       <c r="I27" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="J27" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K27" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L27" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M27" t="s">
+        <v>276</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="S27" s="4">
+      <c r="S27" s="5">
         <v>45261</v>
       </c>
       <c r="T27" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="2">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2"/>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3"/>
       <c r="W27">
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3">
         <v>1</v>
       </c>
       <c r="AH27">
@@ -4619,24 +4621,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E28">
         <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G28" t="e">
         <f>#N/A</f>
@@ -4647,60 +4649,60 @@
         <v>#N/A</v>
       </c>
       <c r="I28" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K28" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s">
-        <v>282</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>0</v>
-      </c>
-      <c r="P28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="S28" s="4">
+        <v>284</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="S28" s="5">
         <v>45261</v>
       </c>
       <c r="T28" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="2">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2"/>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3"/>
       <c r="W28">
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="2"/>
-      <c r="AG28" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3">
         <v>1</v>
       </c>
       <c r="AH28">
@@ -4710,88 +4712,88 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C29" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E29">
         <v>2021</v>
       </c>
       <c r="F29" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
         <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I29" t="s">
         <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K29" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L29" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="s">
-        <v>291</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1</v>
-      </c>
-      <c r="O29" s="2">
-        <v>0</v>
-      </c>
-      <c r="P29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="S29" s="4">
+        <v>293</v>
+      </c>
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="S29" s="5">
         <v>45261</v>
       </c>
       <c r="T29" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="2">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2"/>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3"/>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3">
         <v>1</v>
       </c>
       <c r="AH29">
@@ -4801,89 +4803,89 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C30" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D30" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E30">
         <v>2019</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G30" t="s">
         <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I30" t="s">
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K30" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s">
-        <v>300</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1</v>
-      </c>
-      <c r="O30" s="2">
-        <v>0</v>
-      </c>
-      <c r="P30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>0</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="S30" s="4">
+        <v>302</v>
+      </c>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="S30" s="5">
         <v>45261</v>
       </c>
       <c r="T30" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="2">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2"/>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3"/>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>449</v>
+        <v>304</v>
       </c>
       <c r="Y30" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="2"/>
-      <c r="AG30" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3">
         <v>1</v>
       </c>
       <c r="AH30">
@@ -4893,18 +4895,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E31">
         <v>2021</v>
@@ -4922,59 +4924,59 @@
         <v>#N/A</v>
       </c>
       <c r="I31" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K31" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s">
-        <v>308</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1</v>
-      </c>
-      <c r="O31" s="2">
-        <v>0</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="S31" s="4">
+        <v>311</v>
+      </c>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="S31" s="5">
         <v>45261</v>
       </c>
       <c r="T31" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2"/>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3"/>
       <c r="W31">
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3">
         <v>1</v>
       </c>
       <c r="AH31">
@@ -4984,24 +4986,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>256</v>
       </c>
       <c r="B32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="2">
+        <v>315</v>
+      </c>
+      <c r="E32" s="3">
         <v>2021</v>
       </c>
       <c r="F32" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G32">
         <v>636</v>
@@ -5013,77 +5015,79 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s">
-        <v>316</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1</v>
-      </c>
-      <c r="O32" s="2">
-        <v>0</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="S32" s="4">
+        <v>319</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="S32" s="5">
         <v>45261</v>
       </c>
-      <c r="T32" s="8"/>
-      <c r="U32" s="2">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2">
+      <c r="T32" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" t="s">
         <v>44</v>
       </c>
       <c r="Y32" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
-      <c r="AG32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A33" s="13">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
-      </c>
-      <c r="E33" s="2">
+        <v>324</v>
+      </c>
+      <c r="E33" s="3">
         <v>2018</v>
       </c>
       <c r="F33" t="s">
@@ -5099,84 +5103,86 @@
         <v>39</v>
       </c>
       <c r="J33" t="s">
+        <v>325</v>
+      </c>
+      <c r="K33" t="s">
+        <v>326</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="M33" t="s">
+        <v>328</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="S33" s="5">
+        <v>45261</v>
+      </c>
+      <c r="T33" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="K33" t="s">
-        <v>322</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M33" t="s">
-        <v>324</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1</v>
-      </c>
-      <c r="O33" s="2">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>0</v>
-      </c>
-      <c r="R33" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="S33" s="4">
-        <v>45261</v>
-      </c>
-      <c r="T33" s="8"/>
-      <c r="U33" s="2">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Y33" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A34" s="13">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>226</v>
       </c>
       <c r="B34" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C34" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>328</v>
-      </c>
-      <c r="E34" s="2">
+        <v>333</v>
+      </c>
+      <c r="E34" s="3">
         <v>2021</v>
       </c>
       <c r="F34" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="G34">
         <v>69</v>
@@ -5188,84 +5194,86 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>330</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M34" t="s">
-        <v>332</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1</v>
-      </c>
-      <c r="O34" s="2">
-        <v>0</v>
-      </c>
-      <c r="P34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="S34" s="4">
+        <v>337</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="S34" s="5">
         <v>45261</v>
       </c>
-      <c r="T34" s="8"/>
-      <c r="U34" s="2">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2">
+      <c r="T34" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3">
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A35" s="13">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
         <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C35" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D35" t="s">
-        <v>336</v>
-      </c>
-      <c r="E35" s="2">
+        <v>342</v>
+      </c>
+      <c r="E35" s="3">
         <v>2018</v>
       </c>
       <c r="F35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -5277,84 +5285,86 @@
         <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K35" t="s">
-        <v>338</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M35" t="s">
-        <v>339</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>0</v>
-      </c>
-      <c r="R35" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="S35" s="4">
+        <v>345</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="S35" s="5">
         <v>45261</v>
       </c>
-      <c r="T35" s="8"/>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2">
+      <c r="T35" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" t="s">
         <v>86</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A36" s="13">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C36" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s">
-        <v>341</v>
-      </c>
-      <c r="E36" s="2">
+        <v>348</v>
+      </c>
+      <c r="E36" s="3">
         <v>2022</v>
       </c>
       <c r="F36" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5366,87 +5376,89 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K36" t="s">
-        <v>344</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>323</v>
+        <v>351</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M36" t="s">
-        <v>345</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>0</v>
-      </c>
-      <c r="R36" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="S36" s="4">
+        <v>352</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="S36" s="5">
         <v>45261</v>
       </c>
-      <c r="T36" s="8"/>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2">
+      <c r="T36" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3">
         <v>0</v>
       </c>
       <c r="X36" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Y36" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A37" s="13">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
         <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D37" t="s">
-        <v>349</v>
-      </c>
-      <c r="E37" s="2">
+        <v>357</v>
+      </c>
+      <c r="E37" s="3">
         <v>2020</v>
       </c>
       <c r="F37" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G37" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H37">
         <v>52</v>
@@ -5455,84 +5467,86 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K37" t="s">
-        <v>353</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>323</v>
+        <v>361</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M37" t="s">
-        <v>354</v>
-      </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
-        <v>0</v>
-      </c>
-      <c r="P37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>0</v>
-      </c>
-      <c r="R37" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="S37" s="4">
+        <v>362</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="S37" s="5">
         <v>45261</v>
       </c>
-      <c r="T37" s="8"/>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2">
+      <c r="T37" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3">
         <v>0</v>
       </c>
       <c r="X37" t="s">
         <v>208</v>
       </c>
       <c r="Y37" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH37" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A38" s="13">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
         <v>259</v>
       </c>
       <c r="B38" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C38" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D38" t="s">
-        <v>357</v>
-      </c>
-      <c r="E38" s="2">
+        <v>366</v>
+      </c>
+      <c r="E38" s="3">
         <v>2020</v>
       </c>
       <c r="F38" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G38">
         <v>314</v>
@@ -5544,169 +5558,173 @@
         <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="K38" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="L38" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="M38" t="s">
-        <v>362</v>
-      </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
-      </c>
-      <c r="P38" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>0</v>
-      </c>
-      <c r="R38" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="S38" s="4">
+        <v>371</v>
+      </c>
+      <c r="N38" s="3">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="S38" s="5">
         <v>45261</v>
       </c>
-      <c r="T38" s="8"/>
-      <c r="U38" s="2">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2">
+      <c r="T38" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3">
         <v>0</v>
       </c>
       <c r="X38" t="s">
         <v>208</v>
       </c>
       <c r="Y38" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="2"/>
-      <c r="AG38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A39" s="13">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
         <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C39" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D39" t="s">
-        <v>365</v>
-      </c>
-      <c r="E39" s="2">
+        <v>375</v>
+      </c>
+      <c r="E39" s="3">
         <v>2017</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>323</v>
+      <c r="F39" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="I39" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s">
-        <v>367</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>323</v>
+        <v>377</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M39" t="s">
-        <v>368</v>
-      </c>
-      <c r="N39" s="2">
-        <v>1</v>
-      </c>
-      <c r="O39" s="2">
-        <v>0</v>
-      </c>
-      <c r="P39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>0</v>
-      </c>
-      <c r="R39" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="S39" s="4">
+        <v>378</v>
+      </c>
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="S39" s="5">
         <v>45261</v>
       </c>
-      <c r="T39" s="8"/>
-      <c r="U39" s="2">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2">
+      <c r="T39" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0</v>
+      </c>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3">
         <v>0</v>
       </c>
       <c r="X39" t="s">
         <v>44</v>
       </c>
       <c r="Y39" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A40" s="13">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D40" t="s">
-        <v>371</v>
-      </c>
-      <c r="E40" s="2">
+        <v>382</v>
+      </c>
+      <c r="E40" s="3">
         <v>2018</v>
       </c>
       <c r="F40" t="s">
@@ -5722,87 +5740,89 @@
         <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K40" t="s">
-        <v>373</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>323</v>
+        <v>384</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M40" t="s">
-        <v>374</v>
-      </c>
-      <c r="N40" s="2">
-        <v>1</v>
-      </c>
-      <c r="O40" s="2">
-        <v>0</v>
-      </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="S40" s="4">
+        <v>385</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="S40" s="5">
         <v>45261</v>
       </c>
-      <c r="T40" s="8"/>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2">
-        <v>1</v>
-      </c>
-      <c r="X40" s="2"/>
+      <c r="T40" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0</v>
+      </c>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3">
+        <v>1</v>
+      </c>
+      <c r="X40" s="3"/>
       <c r="Y40" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="2"/>
-      <c r="AG40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A41" s="13">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C41" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D41" t="s">
-        <v>377</v>
-      </c>
-      <c r="E41" s="2">
+        <v>389</v>
+      </c>
+      <c r="E41" s="3">
         <v>2020</v>
       </c>
       <c r="F41" t="s">
         <v>79</v>
       </c>
       <c r="G41" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="H41">
         <v>112</v>
@@ -5811,266 +5831,272 @@
         <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L41" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M41" t="s">
-        <v>382</v>
-      </c>
-      <c r="N41" s="2">
-        <v>1</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0</v>
-      </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="S41" s="4">
+        <v>394</v>
+      </c>
+      <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="S41" s="5">
         <v>45261</v>
       </c>
-      <c r="T41" s="8"/>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2">
-        <v>1</v>
-      </c>
-      <c r="X41" s="2"/>
+      <c r="T41" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3">
+        <v>1</v>
+      </c>
+      <c r="X41" s="3"/>
       <c r="Y41" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF41" s="11"/>
-      <c r="AG41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A42" s="13">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
         <v>247</v>
       </c>
       <c r="B42" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C42" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D42" t="s">
-        <v>386</v>
-      </c>
-      <c r="E42" s="2">
+        <v>399</v>
+      </c>
+      <c r="E42" s="3">
         <v>1994</v>
       </c>
       <c r="F42" t="s">
-        <v>387</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>323</v>
+        <v>400</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="I42" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J42" t="s">
-        <v>388</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>323</v>
+        <v>402</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="L42" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="M42" t="s">
-        <v>390</v>
-      </c>
-      <c r="N42" s="2">
-        <v>1</v>
-      </c>
-      <c r="O42" s="2">
-        <v>0</v>
-      </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="S42" s="4">
+        <v>404</v>
+      </c>
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="S42" s="5">
         <v>45261</v>
       </c>
-      <c r="T42" s="8"/>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2">
+      <c r="T42" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3">
         <v>0</v>
       </c>
       <c r="X42" t="s">
         <v>208</v>
       </c>
       <c r="Y42" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="2"/>
-      <c r="AG42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A43" s="13">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
         <v>251</v>
       </c>
       <c r="B43" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="D43" t="s">
-        <v>393</v>
-      </c>
-      <c r="E43" s="2">
+        <v>408</v>
+      </c>
+      <c r="E43" s="3">
         <v>2017</v>
       </c>
       <c r="F43" t="s">
-        <v>394</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>323</v>
+        <v>409</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="J43" t="s">
-        <v>396</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>323</v>
+        <v>410</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="L43" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="M43" t="s">
-        <v>398</v>
-      </c>
-      <c r="N43" s="2">
-        <v>1</v>
-      </c>
-      <c r="O43" s="2">
-        <v>0</v>
-      </c>
-      <c r="P43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>0</v>
-      </c>
-      <c r="R43" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="S43" s="4">
+        <v>412</v>
+      </c>
+      <c r="N43" s="3">
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="S43" s="5">
         <v>45261</v>
       </c>
-      <c r="T43" s="8"/>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2">
+      <c r="T43" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3">
         <v>0</v>
       </c>
       <c r="X43" t="s">
         <v>208</v>
       </c>
       <c r="Y43" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AG43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A44" s="13">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="C44" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D44" t="s">
-        <v>400</v>
-      </c>
-      <c r="E44" s="2">
+        <v>415</v>
+      </c>
+      <c r="E44" s="3">
         <v>2021</v>
       </c>
       <c r="F44" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -6082,80 +6108,82 @@
         <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="K44" t="s">
-        <v>402</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>323</v>
+        <v>417</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M44" t="s">
-        <v>403</v>
-      </c>
-      <c r="N44" s="2">
-        <v>1</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>0</v>
-      </c>
-      <c r="R44" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="S44" s="4">
+        <v>418</v>
+      </c>
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="S44" s="5">
         <v>45261</v>
       </c>
-      <c r="T44" s="8"/>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2">
+      <c r="T44" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3">
         <v>0</v>
       </c>
       <c r="X44" t="s">
         <v>86</v>
       </c>
       <c r="Y44" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" s="13">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
         <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="C45" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D45" t="s">
-        <v>406</v>
-      </c>
-      <c r="E45" s="2">
+        <v>422</v>
+      </c>
+      <c r="E45" s="3">
         <v>2007</v>
       </c>
       <c r="F45" t="s">
@@ -6171,261 +6199,267 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="K45" t="s">
-        <v>408</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>323</v>
+        <v>424</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M45" t="s">
-        <v>409</v>
-      </c>
-      <c r="N45" s="2">
-        <v>1</v>
-      </c>
-      <c r="O45" s="2">
-        <v>0</v>
-      </c>
-      <c r="P45" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>0</v>
-      </c>
-      <c r="R45" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="S45" s="4">
+        <v>425</v>
+      </c>
+      <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="S45" s="5">
         <v>45261</v>
       </c>
-      <c r="T45" s="8"/>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2">
+      <c r="T45" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" t="s">
         <v>126</v>
       </c>
       <c r="Y45" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="2"/>
-      <c r="AG45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" s="13">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
         <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="C46" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="D46" t="s">
-        <v>412</v>
-      </c>
-      <c r="E46" s="2">
+        <v>429</v>
+      </c>
+      <c r="E46" s="3">
         <v>2021</v>
       </c>
       <c r="F46" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>323</v>
+      <c r="G46" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="I46" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>323</v>
+        <v>430</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="L46" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="M46" t="s">
-        <v>415</v>
-      </c>
-      <c r="N46" s="2">
-        <v>1</v>
-      </c>
-      <c r="O46" s="2">
-        <v>0</v>
-      </c>
-      <c r="P46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>0</v>
-      </c>
-      <c r="R46" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="S46" s="4">
+        <v>432</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="S46" s="5">
         <v>45261</v>
       </c>
-      <c r="T46" s="8"/>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2">
-        <v>1</v>
-      </c>
-      <c r="X46" s="2"/>
+      <c r="T46" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3">
+        <v>1</v>
+      </c>
+      <c r="X46" s="3"/>
       <c r="Y46" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="2"/>
-      <c r="AG46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A47" s="13">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
         <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="C47" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D47" t="s">
-        <v>417</v>
-      </c>
-      <c r="E47" s="2">
+        <v>434</v>
+      </c>
+      <c r="E47" s="3">
         <v>2021</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>323</v>
+      <c r="F47" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="I47" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="J47" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K47" t="s">
-        <v>419</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>436</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M47" t="s">
-        <v>420</v>
-      </c>
-      <c r="N47" s="2">
-        <v>1</v>
-      </c>
-      <c r="O47" s="2">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>0</v>
-      </c>
-      <c r="R47" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="S47" s="4">
+        <v>437</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="S47" s="5">
         <v>45261</v>
       </c>
-      <c r="T47" s="8"/>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2">
-        <v>1</v>
-      </c>
-      <c r="X47" s="2"/>
+      <c r="T47" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3">
+        <v>1</v>
+      </c>
+      <c r="X47" s="3"/>
       <c r="Y47" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
+      <c r="AG47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A48" s="13">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
         <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="C48" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
-      </c>
-      <c r="E48" s="2">
+        <v>441</v>
+      </c>
+      <c r="E48" s="3">
         <v>2023</v>
       </c>
       <c r="F48" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="G48" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="H48">
         <v>128</v>
@@ -6434,91 +6468,93 @@
         <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>425</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>323</v>
+        <v>443</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="L48" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="M48" t="s">
-        <v>427</v>
-      </c>
-      <c r="N48" s="2">
-        <v>1</v>
-      </c>
-      <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>0</v>
-      </c>
-      <c r="R48" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="S48" s="4">
+        <v>445</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="S48" s="5">
         <v>45261</v>
       </c>
-      <c r="T48" s="8"/>
-      <c r="U48" s="2">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2">
-        <v>1</v>
-      </c>
-      <c r="X48" s="2"/>
+      <c r="T48" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3">
+        <v>1</v>
+      </c>
+      <c r="X48" s="3"/>
       <c r="Y48" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="13">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
         <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="C49" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="D49" t="s">
-        <v>431</v>
-      </c>
-      <c r="E49" s="2">
+        <v>450</v>
+      </c>
+      <c r="E49" s="3">
         <v>2015</v>
       </c>
       <c r="F49" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G49" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="H49">
         <v>47</v>
@@ -6527,173 +6563,177 @@
         <v>39</v>
       </c>
       <c r="J49" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="K49" t="s">
-        <v>434</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>323</v>
+        <v>453</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M49" t="s">
-        <v>435</v>
-      </c>
-      <c r="N49" s="2">
-        <v>1</v>
-      </c>
-      <c r="O49" s="2">
-        <v>0</v>
-      </c>
-      <c r="P49" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>0</v>
-      </c>
-      <c r="R49" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="S49" s="4">
+        <v>454</v>
+      </c>
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="S49" s="5">
         <v>45261</v>
       </c>
-      <c r="T49" s="8"/>
-      <c r="U49" s="2">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2">
+      <c r="T49" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3">
         <v>0</v>
       </c>
       <c r="X49" t="s">
         <v>44</v>
       </c>
       <c r="Y49" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
-      <c r="AG49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+      <c r="AG49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A50" s="13">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
         <v>225</v>
       </c>
       <c r="B50" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="C50" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="D50" t="s">
-        <v>438</v>
-      </c>
-      <c r="E50" s="2">
+        <v>458</v>
+      </c>
+      <c r="E50" s="3">
         <v>2022</v>
       </c>
       <c r="F50" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>323</v>
+      <c r="G50" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="H50" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="I50" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="J50" t="s">
-        <v>440</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>323</v>
+        <v>460</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M50" t="s">
-        <v>441</v>
-      </c>
-      <c r="N50" s="2">
-        <v>1</v>
-      </c>
-      <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>0</v>
-      </c>
-      <c r="R50" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="S50" s="4">
+        <v>461</v>
+      </c>
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="S50" s="5">
         <v>45261</v>
       </c>
-      <c r="T50" s="8"/>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2">
+      <c r="T50" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3">
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="Y50" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
-      <c r="AG50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH50" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+      <c r="AG50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A51" s="13">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
         <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D51" t="s">
-        <v>445</v>
-      </c>
-      <c r="E51" s="2">
+        <v>466</v>
+      </c>
+      <c r="E51" s="3">
         <v>2000</v>
       </c>
       <c r="F51" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G51">
         <v>235</v>
@@ -6705,87 +6745,89 @@
         <v>39</v>
       </c>
       <c r="J51" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="K51" t="s">
-        <v>447</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>323</v>
+        <v>468</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M51" t="s">
-        <v>448</v>
-      </c>
-      <c r="N51" s="2">
-        <v>1</v>
-      </c>
-      <c r="O51" s="2">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>0</v>
-      </c>
-      <c r="R51" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="S51" s="4">
+        <v>469</v>
+      </c>
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="S51" s="5">
         <v>45261</v>
       </c>
-      <c r="T51" s="8"/>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2">
+      <c r="T51" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3">
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>449</v>
+        <v>304</v>
       </c>
       <c r="Y51" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+      <c r="AG51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A52" s="13">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="C52" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="D52" t="s">
-        <v>452</v>
-      </c>
-      <c r="E52" s="2">
+        <v>473</v>
+      </c>
+      <c r="E52" s="3">
         <v>2022</v>
       </c>
       <c r="F52" t="s">
-        <v>453</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>323</v>
+        <v>474</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="H52">
         <v>122</v>
@@ -6794,84 +6836,86 @@
         <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="K52" t="s">
-        <v>455</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>323</v>
+        <v>476</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M52" t="s">
-        <v>456</v>
-      </c>
-      <c r="N52" s="2">
-        <v>1</v>
-      </c>
-      <c r="O52" s="2">
-        <v>0</v>
-      </c>
-      <c r="P52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>0</v>
-      </c>
-      <c r="R52" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="S52" s="4">
+        <v>477</v>
+      </c>
+      <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="S52" s="5">
         <v>45261</v>
       </c>
-      <c r="T52" s="8"/>
-      <c r="U52" s="2">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2">
+      <c r="T52" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3">
         <v>0</v>
       </c>
       <c r="X52" t="s">
         <v>44</v>
       </c>
       <c r="Y52" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="2"/>
-      <c r="AG52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+      <c r="AG52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A53" s="13">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C53" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D53" t="s">
-        <v>458</v>
-      </c>
-      <c r="E53" s="2">
+        <v>480</v>
+      </c>
+      <c r="E53" s="3">
         <v>2009</v>
       </c>
       <c r="F53" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G53">
         <v>268</v>
@@ -6883,172 +6927,176 @@
         <v>39</v>
       </c>
       <c r="J53" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="K53" t="s">
-        <v>460</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>323</v>
+        <v>482</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M53" t="s">
-        <v>461</v>
-      </c>
-      <c r="N53" s="2">
-        <v>1</v>
-      </c>
-      <c r="O53" s="2">
-        <v>0</v>
-      </c>
-      <c r="P53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>0</v>
-      </c>
-      <c r="R53" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="S53" s="4">
+        <v>483</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="S53" s="5">
         <v>45261</v>
       </c>
-      <c r="T53" s="8"/>
-      <c r="U53" s="2">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2">
+      <c r="T53" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3">
         <v>0</v>
       </c>
       <c r="X53" t="s">
         <v>208</v>
       </c>
       <c r="Y53" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="2"/>
-      <c r="AG53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+      <c r="AG53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A54" s="13">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="D54" t="s">
-        <v>464</v>
-      </c>
-      <c r="E54" s="2">
+        <v>487</v>
+      </c>
+      <c r="E54" s="3">
         <v>2021</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>323</v>
+      <c r="F54" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="I54" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="J54" t="s">
-        <v>466</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>323</v>
+        <v>489</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M54" t="s">
-        <v>467</v>
-      </c>
-      <c r="N54" s="2">
-        <v>1</v>
-      </c>
-      <c r="O54" s="2">
-        <v>0</v>
-      </c>
-      <c r="P54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>0</v>
-      </c>
-      <c r="R54" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="S54" s="4">
+        <v>490</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="S54" s="5">
         <v>45261</v>
       </c>
-      <c r="T54" s="8"/>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2">
-        <v>1</v>
-      </c>
-      <c r="X54" s="2"/>
+      <c r="T54" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3">
+        <v>1</v>
+      </c>
+      <c r="X54" s="3"/>
       <c r="Y54" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A55" s="13">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
         <v>208</v>
       </c>
       <c r="B55" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="C55" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="D55" t="s">
-        <v>471</v>
-      </c>
-      <c r="E55" s="2">
+        <v>495</v>
+      </c>
+      <c r="E55" s="3">
         <v>2020</v>
       </c>
       <c r="F55" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -7060,168 +7108,172 @@
         <v>39</v>
       </c>
       <c r="J55" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="K55" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="L55" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="M55" t="s">
-        <v>475</v>
-      </c>
-      <c r="N55" s="2">
-        <v>1</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>0</v>
-      </c>
-      <c r="R55" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="S55" s="4">
+        <v>499</v>
+      </c>
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="S55" s="5">
         <v>45261</v>
       </c>
-      <c r="T55" s="8"/>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2">
+      <c r="T55" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0</v>
+      </c>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3">
         <v>0</v>
       </c>
       <c r="X55" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="2"/>
-      <c r="AG55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH55" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI55" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A56" s="13">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>264</v>
       </c>
       <c r="B56" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="D56" t="s">
-        <v>478</v>
-      </c>
-      <c r="E56" s="2">
+        <v>503</v>
+      </c>
+      <c r="E56" s="3">
         <v>2008</v>
       </c>
       <c r="F56" t="s">
-        <v>479</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>323</v>
+        <v>504</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="I56" t="s">
+        <v>273</v>
+      </c>
+      <c r="J56" t="s">
+        <v>505</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="M56" t="s">
         <v>506</v>
       </c>
-      <c r="J56" t="s">
-        <v>480</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="M56" t="s">
-        <v>481</v>
-      </c>
-      <c r="N56" s="2">
-        <v>1</v>
-      </c>
-      <c r="O56" s="2">
-        <v>0</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>0</v>
-      </c>
-      <c r="R56" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="S56" s="4">
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="S56" s="5">
         <v>45261</v>
       </c>
-      <c r="T56" s="8"/>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2">
-        <v>1</v>
-      </c>
-      <c r="X56" s="2"/>
+      <c r="T56" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0</v>
+      </c>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3">
+        <v>1</v>
+      </c>
+      <c r="X56" s="3"/>
       <c r="Y56" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" s="13">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="C57" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="D57" t="s">
-        <v>484</v>
-      </c>
-      <c r="E57" s="2">
+        <v>510</v>
+      </c>
+      <c r="E57" s="3">
         <v>2022</v>
       </c>
       <c r="F57" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -7233,80 +7285,82 @@
         <v>39</v>
       </c>
       <c r="J57" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="K57" t="s">
-        <v>487</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>323</v>
+        <v>513</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M57" t="s">
-        <v>488</v>
-      </c>
-      <c r="N57" s="2">
-        <v>1</v>
-      </c>
-      <c r="O57" s="2">
-        <v>0</v>
-      </c>
-      <c r="P57" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>0</v>
-      </c>
-      <c r="R57" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="S57" s="4">
+        <v>514</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="S57" s="5">
         <v>45261</v>
       </c>
-      <c r="T57" s="8"/>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2">
+      <c r="T57" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" t="s">
         <v>208</v>
       </c>
       <c r="Y57" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="2"/>
-      <c r="AG57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI57" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+      <c r="AG57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" s="13">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
         <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="C58" t="s">
-        <v>490</v>
+        <v>517</v>
       </c>
       <c r="D58" t="s">
-        <v>491</v>
-      </c>
-      <c r="E58" s="2">
+        <v>518</v>
+      </c>
+      <c r="E58" s="3">
         <v>1997</v>
       </c>
       <c r="F58" t="s">
@@ -7322,77 +7376,79 @@
         <v>39</v>
       </c>
       <c r="J58" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="K58" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="M58" t="s">
-        <v>494</v>
-      </c>
-      <c r="N58" s="2">
-        <v>1</v>
-      </c>
-      <c r="O58" s="2">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>0</v>
-      </c>
-      <c r="R58" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="S58" s="4">
+        <v>521</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="S58" s="5">
         <v>45261</v>
       </c>
-      <c r="T58" s="8"/>
-      <c r="U58" s="2">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2">
+      <c r="T58" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" t="s">
         <v>208</v>
       </c>
       <c r="Y58" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
-      <c r="AG58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="3">
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" s="13">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
         <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
       <c r="C59" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="D59" t="s">
-        <v>497</v>
-      </c>
-      <c r="E59" s="2">
+        <v>525</v>
+      </c>
+      <c r="E59" s="3">
         <v>1998</v>
       </c>
       <c r="F59" t="s">
@@ -7408,181 +7464,183 @@
         <v>39</v>
       </c>
       <c r="J59" t="s">
-        <v>498</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>323</v>
+        <v>526</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="M59" t="s">
-        <v>499</v>
-      </c>
-      <c r="N59" s="2">
-        <v>1</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>0</v>
-      </c>
-      <c r="R59" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="S59" s="5">
+        <v>45261</v>
+      </c>
+      <c r="T59" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" t="s">
+        <v>530</v>
+      </c>
+      <c r="C60" t="s">
+        <v>531</v>
+      </c>
+      <c r="D60" t="s">
+        <v>532</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2011</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="J60" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="S59" s="4">
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" t="s">
+        <v>535</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="S60" s="5">
         <v>45261</v>
       </c>
-      <c r="T59" s="8"/>
-      <c r="U59" s="2">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2">
-        <v>0</v>
-      </c>
-      <c r="X59" t="s">
-        <v>500</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="2"/>
-      <c r="AG59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="2">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="13">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>501</v>
-      </c>
-      <c r="C60" t="s">
-        <v>502</v>
-      </c>
-      <c r="D60" t="s">
-        <v>503</v>
-      </c>
-      <c r="E60" s="2">
-        <v>2011</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" t="s">
-        <v>505</v>
-      </c>
-      <c r="N60" s="2">
-        <v>1</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>0</v>
-      </c>
-      <c r="R60" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="S60" s="4">
-        <v>45261</v>
-      </c>
-      <c r="T60" s="8"/>
-      <c r="U60" s="2">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2">
-        <v>1</v>
-      </c>
-      <c r="X60" s="2"/>
+      <c r="T60" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3">
+        <v>1</v>
+      </c>
+      <c r="X60" s="3"/>
       <c r="Y60" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
-      <c r="AG60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+      <c r="AG60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="3">
         <v>222</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AE54:AF54"/>
     <mergeCell ref="J60:L60"/>
-    <mergeCell ref="AE54:AF54"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AE41:AF41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="L9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="R31" r:id="rId3" xr:uid="{35DC9EA2-A433-413D-8F52-A832E19D922E}"/>
-    <hyperlink ref="R33" r:id="rId4" xr:uid="{968D543D-9A79-4879-A562-95017C84E145}"/>
-    <hyperlink ref="R32" r:id="rId5" xr:uid="{74E54A54-196B-42CD-AE0B-C9203FDDD79E}"/>
-    <hyperlink ref="R35" r:id="rId6" xr:uid="{039FA407-C8D0-46B8-9844-77261244B372}"/>
-    <hyperlink ref="R36" r:id="rId7" xr:uid="{84BB9505-C4D4-4FD6-81E3-BA145941805C}"/>
-    <hyperlink ref="R37" r:id="rId8" xr:uid="{A2271B09-2673-4873-B040-D06D2853405A}"/>
-    <hyperlink ref="R38" r:id="rId9" xr:uid="{82D51F0F-FF30-42D4-86B1-76B16280F91B}"/>
-    <hyperlink ref="R39" r:id="rId10" xr:uid="{D7D443DC-FC8E-4B26-82C1-EFB0B5562D0F}"/>
-    <hyperlink ref="R40" r:id="rId11" xr:uid="{B473A9EE-6D29-4831-9AD3-59EEA6F04E68}"/>
-    <hyperlink ref="R41" r:id="rId12" tooltip="Persistent link using digital object identifier" xr:uid="{1A3E801E-7283-40EE-B4F1-D2DAF7F1B667}"/>
-    <hyperlink ref="R42" r:id="rId13" xr:uid="{12C1EDA6-BFAE-4D06-96A9-7D5A81EB8A2A}"/>
-    <hyperlink ref="R43" r:id="rId14" xr:uid="{D0E4E56B-81AE-481C-82E4-FF1734143838}"/>
-    <hyperlink ref="R44" r:id="rId15" tooltip="Persistent link using digital object identifier" xr:uid="{FD8BFC83-7587-4A26-A310-6888ACD9B896}"/>
-    <hyperlink ref="R45" r:id="rId16" xr:uid="{FBBC0DC0-B46F-40BA-B920-0362B55F339B}"/>
-    <hyperlink ref="R46" r:id="rId17" xr:uid="{9C101BDD-AD90-43D2-961E-CDF3293341BC}"/>
-    <hyperlink ref="R47" r:id="rId18" xr:uid="{9636F031-AC82-41DB-82FD-10B3F3C5750B}"/>
-    <hyperlink ref="R48" r:id="rId19" tooltip="Persistent link using digital object identifier" xr:uid="{ADF1C6C2-442A-454B-BF28-7DF8DCD56FD5}"/>
-    <hyperlink ref="R49" r:id="rId20" xr:uid="{6F63819A-D69F-487B-A391-213BF1384E20}"/>
-    <hyperlink ref="R50" r:id="rId21" xr:uid="{9D808C4A-9B25-4CCC-B024-C7042F8579A3}"/>
-    <hyperlink ref="R51" r:id="rId22" xr:uid="{928F81DE-B68F-4DF9-8B0E-9582BB4FAC47}"/>
-    <hyperlink ref="R52" r:id="rId23" tooltip="Persistent link using digital object identifier" xr:uid="{32C65D97-9B19-4A48-B7C9-FDB55C6D1456}"/>
-    <hyperlink ref="R53" r:id="rId24" xr:uid="{89B8D230-8636-4D13-97A2-75722A9EF1FA}"/>
-    <hyperlink ref="R54" r:id="rId25" xr:uid="{DBA44C15-A1EF-4D08-8145-B6A6B975DBE7}"/>
-    <hyperlink ref="R55" r:id="rId26" xr:uid="{4DEA6430-2E11-4436-87F5-81EC1331333E}"/>
-    <hyperlink ref="R56" r:id="rId27" xr:uid="{FF302DE8-C788-4C26-B0E7-4E26ECFEC8C6}"/>
-    <hyperlink ref="R57" r:id="rId28" xr:uid="{5FD72000-7416-41B1-9000-BC3BEDC47316}"/>
-    <hyperlink ref="R58" r:id="rId29" xr:uid="{42EB3CAA-CA89-490E-87C7-1A41E7C2644A}"/>
-    <hyperlink ref="R59" r:id="rId30" xr:uid="{843363B8-4BB2-47E5-81E6-9F48DCE82672}"/>
-    <hyperlink ref="R60" r:id="rId31" xr:uid="{CF9B5ADC-D6B2-4012-A3DE-A63E01FFB347}"/>
+    <hyperlink ref="R31" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="R32" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="R33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="R35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="R36" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="R37" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="R38" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="R39" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="R40" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="R41" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="R42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="R43" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="R44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="R45" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="R46" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="R47" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="R48" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="R49" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="R50" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="R51" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="R52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="R53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="R54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="R55" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="R56" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="R57" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="R58" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="R59" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="R60" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/data/snowballing/study_set_27.xlsx
+++ b/data/snowballing/study_set_27.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enzinger\Documents\data\data\snowballing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFED5A9-5500-4912-A790-BE6EB2935194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29025FF7-4676-4729-A511-5ED459A9225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="535">
   <si>
     <t>record_id</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Deciphering Federal Reserve Communication via Text Analysis of Alternative FOMC Statements</t>
   </si>
   <si>
-    <t>preprint</t>
-  </si>
-  <si>
     <t>We construct a new measure of monetary policy surprise based on a natural language processing algorithm designed to capture contextual nuances in FOMC statements. Specifically we exploit cross-sectional variations across alternative FOMC statements to identify the statement's tone, and compare current and previous FOMC statements to obtain the novelty. We use high-frequency bond price movements around FOMC announcements to compute the surprise component of the monetary policy announcement. According to our measure, the stock market declines after unexpected policy tightening. Our text-based approach allows us to assess the counterfactual effects of an altered FOMC statement on the stock market.</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
   </si>
   <si>
     <t>Text Shocks and Monetary Surprises: Text Analysis of FOMC Statements with Machine Learning</t>
-  </si>
-  <si>
-    <t>conferencePaper</t>
   </si>
   <si>
     <t>This paper shows that the wording of Federal Reserve communication affects expectations and other economic variables over and above the effects of setting the federal funds rate. Adapting neural network methods for text analysis from the computer science literature, I analyze how the wording in statements of the Federal Open Market Committee (FOMC) impacts fed funds futures (FFF) prices when these statements are announced. Using text analysis on FOMC statements and internal meeting materials, I create a new monetary policy “text shock” series for 2005-2014 that isolates the variation of FFF prices induced by the FOMC’s forward guidance, not their current assessment of the economy. I find that the wording of FOMC statements accounts for four times more variation in FFF prices than direct announcements of changes in the target federal funds rate. I also find that the impact of forward guidance on real interest rates is twice as large when using text shocks over other measures, like changes in FFF prices. Furthermore, the text shock produces responses in output and inflation qualitatively consistent with workhorse macroeconomic models, whereas changes in FFF prices do not.</t>
@@ -1656,7 +1650,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1686,6 +1680,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1717,7 +1716,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1736,10 +1734,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2126,16 +2125,13 @@
   <dimension ref="A1:AI60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.88671875" style="10"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2174,75 +2170,75 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AI1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="2" spans="1:35">
+      <c r="A2" s="9">
         <v>197</v>
       </c>
       <c r="B2" t="s">
@@ -2268,8 +2264,8 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I2" t="s">
-        <v>39</v>
+      <c r="I2" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="J2" t="s">
         <v>40</v>
@@ -2284,32 +2280,32 @@
       <c r="M2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4" t="s">
+      <c r="N2" s="2">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="4">
         <v>45261</v>
       </c>
       <c r="T2" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3">
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2">
         <v>0</v>
       </c>
       <c r="X2" t="s">
@@ -2318,14 +2314,14 @@
       <c r="Y2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
       <c r="AH2">
         <v>1</v>
       </c>
@@ -2333,8 +2329,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:35">
+      <c r="A3" s="9">
         <v>245</v>
       </c>
       <c r="B3" t="s">
@@ -2369,54 +2365,54 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="M3" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="3">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4" t="s">
+      <c r="N3" s="2">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>45261</v>
       </c>
       <c r="T3" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="3"/>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2"/>
       <c r="Y3" t="s">
         <v>45</v>
       </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
       <c r="AF3" t="s">
         <v>54</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="2">
         <v>1</v>
       </c>
       <c r="AH3">
@@ -2426,8 +2422,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:35">
+      <c r="A4" s="9">
         <v>136</v>
       </c>
       <c r="B4" t="s">
@@ -2467,32 +2463,32 @@
       <c r="M4" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="3">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4" t="s">
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="4">
         <v>45261</v>
       </c>
       <c r="T4" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3">
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2">
         <v>0</v>
       </c>
       <c r="X4" t="s">
@@ -2501,14 +2497,14 @@
       <c r="Y4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
       <c r="AH4">
         <v>1</v>
       </c>
@@ -2516,8 +2512,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:35">
+      <c r="A5" s="9">
         <v>188</v>
       </c>
       <c r="B5" t="s">
@@ -2544,65 +2540,65 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>72</v>
       </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S5" s="5">
+        <v>71</v>
+      </c>
+      <c r="S5" s="4">
         <v>45261</v>
       </c>
       <c r="T5" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>0</v>
       </c>
       <c r="V5" t="s">
+        <v>73</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
         <v>74</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" t="s">
-        <v>75</v>
       </c>
       <c r="Y5" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
       <c r="AH5">
         <v>1</v>
       </c>
@@ -2610,89 +2606,89 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="6" spans="1:35">
+      <c r="A6" s="9">
         <v>83</v>
       </c>
       <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
       </c>
       <c r="E6">
         <v>2006</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>80</v>
-      </c>
-      <c r="H6" t="s">
-        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>39</v>
       </c>
       <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
         <v>82</v>
-      </c>
-      <c r="K6" t="s">
-        <v>83</v>
       </c>
       <c r="L6" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N6" s="3">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="S6" s="4">
         <v>45261</v>
       </c>
       <c r="T6" t="s">
         <v>43</v>
       </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3">
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2">
         <v>0</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
       <c r="AH6">
         <v>1</v>
       </c>
@@ -2700,88 +2696,88 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:35">
+      <c r="A7" s="9">
         <v>165</v>
       </c>
       <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
       </c>
       <c r="E7">
         <v>2018</v>
       </c>
       <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>91</v>
-      </c>
-      <c r="H7" t="s">
-        <v>92</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
       </c>
       <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>95</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>45261</v>
       </c>
       <c r="T7" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3">
-        <v>1</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>98</v>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
         <v>45</v>
       </c>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
       <c r="AH7">
         <v>1</v>
       </c>
@@ -2789,18 +2785,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="8" spans="1:35">
+      <c r="A8" s="9">
         <v>192</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>101</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -2817,64 +2813,64 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I8" t="s">
-        <v>102</v>
+      <c r="I8" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K8" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="M8" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>45261</v>
       </c>
       <c r="T8" t="s">
         <v>43</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3">
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
         <v>45</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
       <c r="AH8">
         <v>1</v>
       </c>
@@ -2882,18 +2878,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="9" spans="1:35">
+      <c r="A9" s="9">
         <v>200</v>
       </c>
       <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
         <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
       </c>
       <c r="E9">
         <v>2009</v>
@@ -2910,65 +2906,65 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I9" t="s">
-        <v>69</v>
+      <c r="I9" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>45261</v>
       </c>
       <c r="T9" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1</v>
-      </c>
-      <c r="X9" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2"/>
       <c r="Y9" t="s">
         <v>45</v>
       </c>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s">
         <v>54</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="2">
         <v>1</v>
       </c>
       <c r="AH9">
@@ -2978,89 +2974,89 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="10" spans="1:35">
+      <c r="A10" s="9">
         <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
         <v>116</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>118</v>
       </c>
       <c r="E10">
         <v>2020</v>
       </c>
       <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s">
         <v>119</v>
-      </c>
-      <c r="G10" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" t="s">
-        <v>121</v>
       </c>
       <c r="I10" t="s">
         <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L10" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S10" s="5">
+        <v>122</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="4">
         <v>45261</v>
       </c>
       <c r="T10" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3">
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
         <v>45</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
       <c r="AH10">
         <v>1</v>
       </c>
@@ -3068,18 +3064,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="11" spans="1:35">
+      <c r="A11" s="9">
         <v>181</v>
       </c>
       <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" t="s">
-        <v>129</v>
       </c>
       <c r="E11">
         <v>2023</v>
@@ -3088,69 +3084,69 @@
         <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
         <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K11" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="S11" s="5">
+        <v>132</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="S11" s="4">
         <v>45261</v>
       </c>
       <c r="T11" t="s">
         <v>43</v>
       </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3">
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2">
         <v>0</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y11" t="s">
         <v>45</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
       <c r="AH11">
         <v>1</v>
       </c>
@@ -3158,18 +3154,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="12" spans="1:35">
+      <c r="A12" s="9">
         <v>236</v>
       </c>
       <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
         <v>135</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -3186,65 +3182,65 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I12" t="s">
-        <v>69</v>
+      <c r="I12" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
         <v>138</v>
       </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>139</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="M12" t="s">
-        <v>141</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="S12" s="4">
         <v>45261</v>
       </c>
       <c r="T12" t="s">
         <v>43</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="2">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>74</v>
-      </c>
-      <c r="W12" s="3">
+        <v>73</v>
+      </c>
+      <c r="W12" s="2">
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
         <v>45</v>
       </c>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
       <c r="AH12">
         <v>1</v>
       </c>
@@ -3252,89 +3248,89 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+    <row r="13" spans="1:35">
+      <c r="A13" s="9">
         <v>119</v>
       </c>
       <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
         <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" t="s">
-        <v>145</v>
       </c>
       <c r="E13">
         <v>2022</v>
       </c>
       <c r="F13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L13" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>0</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="S13" s="5">
+        <v>148</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="S13" s="4">
         <v>45261</v>
       </c>
       <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3">
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
         <v>45</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
       <c r="AH13">
         <v>1</v>
       </c>
@@ -3342,89 +3338,89 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+    <row r="14" spans="1:35">
+      <c r="A14" s="9">
         <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
         <v>153</v>
-      </c>
-      <c r="C14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" t="s">
-        <v>155</v>
       </c>
       <c r="E14">
         <v>2011</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
         <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I14" t="s">
         <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L14" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M14" t="s">
-        <v>160</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="S14" s="5">
+        <v>158</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="S14" s="4">
         <v>45261</v>
       </c>
       <c r="T14" t="s">
         <v>43</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3">
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2">
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
       <c r="AH14">
         <v>1</v>
       </c>
@@ -3432,89 +3428,89 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+    <row r="15" spans="1:35">
+      <c r="A15" s="9">
         <v>193</v>
       </c>
       <c r="B15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" t="s">
         <v>162</v>
-      </c>
-      <c r="C15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" t="s">
-        <v>164</v>
       </c>
       <c r="E15">
         <v>2016</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G15" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
       </c>
       <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
         <v>167</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>168</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="S15" s="4">
         <v>45261</v>
       </c>
       <c r="T15" t="s">
         <v>43</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3">
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2">
         <v>0</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s">
         <v>45</v>
       </c>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
       <c r="AH15">
         <v>1</v>
       </c>
@@ -3522,18 +3518,18 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:35">
+      <c r="A16" s="9">
         <v>109</v>
       </c>
       <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" t="s">
         <v>174</v>
-      </c>
-      <c r="C16" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -3550,64 +3546,64 @@
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
-      <c r="I16" t="s">
-        <v>39</v>
+      <c r="I16" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="J16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L16" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M16" t="s">
-        <v>179</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S16" s="5">
+        <v>177</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="S16" s="4">
         <v>45261</v>
       </c>
       <c r="T16" t="s">
         <v>43</v>
       </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3">
-        <v>1</v>
-      </c>
-      <c r="X16" s="3"/>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s">
         <v>45</v>
       </c>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
       <c r="AF16" t="s">
         <v>54</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AG16" s="2">
         <v>1</v>
       </c>
       <c r="AH16">
@@ -3617,24 +3613,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+    <row r="17" spans="1:35">
+      <c r="A17" s="9">
         <v>211</v>
       </c>
       <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" t="s">
         <v>181</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" t="s">
-        <v>183</v>
       </c>
       <c r="E17">
         <v>2022</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G17" t="e">
         <f>#N/A</f>
@@ -3648,59 +3644,59 @@
         <v>39</v>
       </c>
       <c r="J17" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" t="s">
         <v>185</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>186</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="M17" t="s">
-        <v>188</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="S17" s="5">
+      <c r="S17" s="4">
         <v>45261</v>
       </c>
       <c r="T17" t="s">
         <v>43</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3">
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y17" t="s">
         <v>45</v>
       </c>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
       <c r="AH17">
         <v>1</v>
       </c>
@@ -3708,89 +3704,89 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+    <row r="18" spans="1:35">
+      <c r="A18" s="9">
         <v>115</v>
       </c>
       <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
         <v>190</v>
-      </c>
-      <c r="C18" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" t="s">
-        <v>192</v>
       </c>
       <c r="E18">
         <v>2022</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L18" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M18" t="s">
-        <v>197</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="S18" s="5">
+        <v>195</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S18" s="4">
         <v>45261</v>
       </c>
       <c r="T18" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3">
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2">
         <v>0</v>
       </c>
       <c r="X18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y18" t="s">
         <v>45</v>
       </c>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
       <c r="AH18">
         <v>1</v>
       </c>
@@ -3798,89 +3794,89 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+    <row r="19" spans="1:35">
+      <c r="A19" s="9">
         <v>47</v>
       </c>
       <c r="B19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" t="s">
         <v>199</v>
-      </c>
-      <c r="C19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>201</v>
       </c>
       <c r="E19">
         <v>2005</v>
       </c>
       <c r="F19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L19" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M19" t="s">
-        <v>206</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="S19" s="5">
+        <v>204</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="S19" s="4">
         <v>45261</v>
       </c>
       <c r="T19" t="s">
         <v>43</v>
       </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3">
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2">
         <v>0</v>
       </c>
       <c r="X19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y19" t="s">
         <v>45</v>
       </c>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
       <c r="AH19">
         <v>1</v>
       </c>
@@ -3888,73 +3884,73 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+    <row r="20" spans="1:35">
+      <c r="A20" s="9">
         <v>137</v>
       </c>
       <c r="B20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" t="s">
         <v>209</v>
-      </c>
-      <c r="C20" t="s">
-        <v>210</v>
-      </c>
-      <c r="D20" t="s">
-        <v>211</v>
       </c>
       <c r="E20">
         <v>1994</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K20" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L20" t="s">
+        <v>212</v>
+      </c>
+      <c r="M20" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M20" t="s">
-        <v>215</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="S20" s="5">
+      <c r="S20" s="4">
         <v>45261</v>
       </c>
       <c r="T20" t="s">
         <v>43</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3">
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2">
         <v>0</v>
       </c>
       <c r="X20" t="s">
@@ -3963,14 +3959,14 @@
       <c r="Y20" t="s">
         <v>45</v>
       </c>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
       <c r="AH20">
         <v>1</v>
       </c>
@@ -3978,89 +3974,89 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+    <row r="21" spans="1:35">
+      <c r="A21" s="9">
         <v>212</v>
       </c>
       <c r="B21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
         <v>217</v>
-      </c>
-      <c r="C21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D21" t="s">
-        <v>219</v>
       </c>
       <c r="E21">
         <v>2023</v>
       </c>
       <c r="F21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" t="s">
         <v>220</v>
-      </c>
-      <c r="G21" t="s">
-        <v>221</v>
-      </c>
-      <c r="H21" t="s">
-        <v>222</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L21" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M21" t="s">
-        <v>225</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="S21" s="5">
+        <v>223</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S21" s="4">
         <v>45261</v>
       </c>
       <c r="T21" t="s">
         <v>43</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3">
-        <v>1</v>
-      </c>
-      <c r="X21" s="3"/>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2">
+        <v>1</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s">
         <v>45</v>
       </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
       <c r="AF21" t="s">
         <v>54</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG21" s="2">
         <v>1</v>
       </c>
       <c r="AH21">
@@ -4070,18 +4066,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+    <row r="22" spans="1:35">
+      <c r="A22" s="9">
         <v>263</v>
       </c>
       <c r="B22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" t="s">
         <v>227</v>
-      </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D22" t="s">
-        <v>229</v>
       </c>
       <c r="E22">
         <v>2023</v>
@@ -4099,63 +4095,63 @@
         <v>#N/A</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="J22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K22" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s">
-        <v>232</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="S22" s="5">
+        <v>230</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="S22" s="4">
         <v>45261</v>
       </c>
       <c r="T22" t="s">
         <v>43</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3">
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2">
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Y22" t="s">
         <v>45</v>
       </c>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
       <c r="AH22">
         <v>1</v>
       </c>
@@ -4163,18 +4159,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+    <row r="23" spans="1:35">
+      <c r="A23" s="9">
         <v>224</v>
       </c>
       <c r="B23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" t="s">
         <v>234</v>
-      </c>
-      <c r="C23" t="s">
-        <v>235</v>
-      </c>
-      <c r="D23" t="s">
-        <v>236</v>
       </c>
       <c r="E23">
         <v>2016</v>
@@ -4192,62 +4188,62 @@
         <v>#N/A</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="J23" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" t="s">
         <v>237</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>238</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" s="2">
+        <v>1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M23" t="s">
-        <v>240</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="S23" s="5">
+      <c r="S23" s="4">
         <v>45261</v>
       </c>
       <c r="T23" t="s">
         <v>43</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3">
-        <v>1</v>
-      </c>
-      <c r="X23" s="3"/>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s">
         <v>45</v>
       </c>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
       <c r="AF23" t="s">
         <v>54</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG23" s="2">
         <v>1</v>
       </c>
       <c r="AH23">
@@ -4257,89 +4253,89 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+    <row r="24" spans="1:35">
+      <c r="A24" s="9">
         <v>77</v>
       </c>
       <c r="B24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" t="s">
         <v>242</v>
-      </c>
-      <c r="C24" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" t="s">
-        <v>244</v>
       </c>
       <c r="E24">
         <v>2005</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L24" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M24" t="s">
-        <v>248</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="S24" s="5">
+        <v>246</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="S24" s="4">
         <v>45261</v>
       </c>
       <c r="T24" t="s">
         <v>43</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3">
-        <v>1</v>
-      </c>
-      <c r="X24" s="3"/>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2">
+        <v>1</v>
+      </c>
+      <c r="X24" s="2"/>
       <c r="Y24" t="s">
         <v>45</v>
       </c>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
       <c r="AF24" t="s">
         <v>54</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG24" s="2">
         <v>1</v>
       </c>
       <c r="AH24">
@@ -4349,88 +4345,88 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+    <row r="25" spans="1:35">
+      <c r="A25" s="9">
         <v>146</v>
       </c>
       <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" t="s">
         <v>250</v>
-      </c>
-      <c r="C25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D25" t="s">
-        <v>252</v>
       </c>
       <c r="E25">
         <v>2021</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
       </c>
       <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" t="s">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s">
         <v>255</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>256</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" s="2">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="M25" t="s">
-        <v>258</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S25" s="5">
+      <c r="S25" s="4">
         <v>45261</v>
       </c>
       <c r="T25" t="s">
         <v>43</v>
       </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3">
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2">
         <v>0</v>
       </c>
       <c r="X25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Y25" t="s">
         <v>45</v>
       </c>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
       <c r="AH25">
         <v>1</v>
       </c>
@@ -4438,85 +4434,85 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:35">
+      <c r="A26" s="9">
         <v>260</v>
       </c>
       <c r="B26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D26" t="s">
         <v>260</v>
-      </c>
-      <c r="C26" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26" t="s">
-        <v>262</v>
       </c>
       <c r="E26">
         <v>2023</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I26" t="s">
         <v>39</v>
       </c>
       <c r="J26" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26" t="s">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s">
         <v>264</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="s">
         <v>265</v>
       </c>
-      <c r="L26" t="s">
-        <v>266</v>
-      </c>
-      <c r="M26" t="s">
-        <v>267</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="S26" s="5">
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="S26" s="4">
         <v>45261</v>
       </c>
       <c r="T26" t="s">
         <v>43</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3"/>
+      <c r="U26" s="2">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2"/>
       <c r="W26">
         <v>1</v>
       </c>
       <c r="Y26" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2">
         <v>1</v>
       </c>
       <c r="AH26">
@@ -4526,24 +4522,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+    <row r="27" spans="1:35">
+      <c r="A27" s="9">
         <v>261</v>
       </c>
       <c r="B27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D27" t="s">
         <v>269</v>
-      </c>
-      <c r="C27" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" t="s">
-        <v>271</v>
       </c>
       <c r="E27">
         <v>2022</v>
       </c>
       <c r="F27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G27" t="e">
         <f>#N/A</f>
@@ -4554,64 +4550,64 @@
         <v>#N/A</v>
       </c>
       <c r="I27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K27" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M27" t="s">
-        <v>276</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="S27" s="5">
+        <v>274</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="S27" s="4">
         <v>45261</v>
       </c>
       <c r="T27" t="s">
         <v>43</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3"/>
+      <c r="U27" s="2">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2"/>
       <c r="W27">
         <v>1</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2">
         <v>1</v>
       </c>
       <c r="AH27">
@@ -4621,24 +4617,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+    <row r="28" spans="1:35">
+      <c r="A28" s="9">
         <v>239</v>
       </c>
       <c r="B28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" t="s">
         <v>278</v>
-      </c>
-      <c r="C28" t="s">
-        <v>279</v>
-      </c>
-      <c r="D28" t="s">
-        <v>280</v>
       </c>
       <c r="E28">
         <v>2023</v>
       </c>
       <c r="F28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G28" t="e">
         <f>#N/A</f>
@@ -4649,60 +4645,60 @@
         <v>#N/A</v>
       </c>
       <c r="I28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K28" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L28" t="s">
+        <v>281</v>
+      </c>
+      <c r="M28" t="s">
+        <v>282</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="M28" t="s">
-        <v>284</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="S28" s="5">
+      <c r="S28" s="4">
         <v>45261</v>
       </c>
       <c r="T28" t="s">
         <v>43</v>
       </c>
-      <c r="U28" s="3">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3"/>
+      <c r="U28" s="2">
+        <v>0</v>
+      </c>
+      <c r="V28" s="2"/>
       <c r="W28">
         <v>1</v>
       </c>
       <c r="Y28" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2">
         <v>1</v>
       </c>
       <c r="AH28">
@@ -4712,88 +4708,88 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+    <row r="29" spans="1:35">
+      <c r="A29" s="9">
         <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" t="s">
         <v>287</v>
-      </c>
-      <c r="C29" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" t="s">
-        <v>289</v>
       </c>
       <c r="E29">
         <v>2021</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I29" t="s">
         <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L29" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="M29" t="s">
-        <v>293</v>
-      </c>
-      <c r="N29" s="3">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="S29" s="5">
+        <v>291</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="S29" s="4">
         <v>45261</v>
       </c>
       <c r="T29" t="s">
         <v>43</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3"/>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="V29" s="2"/>
       <c r="W29">
         <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2">
         <v>1</v>
       </c>
       <c r="AH29">
@@ -4803,89 +4799,89 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="30" spans="1:35">
+      <c r="A30" s="9">
         <v>129</v>
       </c>
       <c r="B30" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D30" t="s">
         <v>295</v>
-      </c>
-      <c r="C30" t="s">
-        <v>296</v>
-      </c>
-      <c r="D30" t="s">
-        <v>297</v>
       </c>
       <c r="E30">
         <v>2019</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I30" t="s">
         <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K30" t="e">
         <f>#N/A</f>
         <v>#N/A</v>
       </c>
       <c r="L30" t="s">
+        <v>299</v>
+      </c>
+      <c r="M30" t="s">
+        <v>300</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="M30" t="s">
-        <v>302</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0</v>
-      </c>
-      <c r="R30" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="S30" s="5">
+      <c r="S30" s="4">
         <v>45261</v>
       </c>
       <c r="T30" t="s">
         <v>43</v>
       </c>
-      <c r="U30" s="3">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3"/>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2"/>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Y30" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2">
         <v>1</v>
       </c>
       <c r="AH30">
@@ -4895,18 +4891,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+    <row r="31" spans="1:35">
+      <c r="A31" s="9">
         <v>215</v>
       </c>
       <c r="B31" t="s">
+        <v>303</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="s">
         <v>305</v>
-      </c>
-      <c r="C31" t="s">
-        <v>306</v>
-      </c>
-      <c r="D31" t="s">
-        <v>307</v>
       </c>
       <c r="E31">
         <v>2021</v>
@@ -4924,59 +4920,59 @@
         <v>#N/A</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J31" t="s">
+        <v>306</v>
+      </c>
+      <c r="K31" t="s">
+        <v>307</v>
+      </c>
+      <c r="L31" t="s">
         <v>308</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>309</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" s="2">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="M31" t="s">
-        <v>311</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="S31" s="5">
+      <c r="S31" s="4">
         <v>45261</v>
       </c>
       <c r="T31" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="3">
-        <v>0</v>
-      </c>
-      <c r="V31" s="3"/>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2"/>
       <c r="W31">
         <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2">
         <v>1</v>
       </c>
       <c r="AH31">
@@ -4986,24 +4982,24 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+    <row r="32" spans="1:35">
+      <c r="A32" s="9">
         <v>256</v>
       </c>
       <c r="B32" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" t="s">
         <v>313</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F32" t="s">
         <v>314</v>
-      </c>
-      <c r="D32" t="s">
-        <v>315</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2021</v>
-      </c>
-      <c r="F32" t="s">
-        <v>316</v>
       </c>
       <c r="G32">
         <v>636</v>
@@ -5015,83 +5011,83 @@
         <v>39</v>
       </c>
       <c r="J32" t="s">
+        <v>315</v>
+      </c>
+      <c r="K32" t="s">
+        <v>316</v>
+      </c>
+      <c r="M32" t="s">
         <v>317</v>
       </c>
-      <c r="K32" t="s">
+      <c r="N32" s="2">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="M32" t="s">
+      <c r="S32" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T32" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="S32" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3">
+      <c r="U32" s="2">
+        <v>0</v>
+      </c>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2">
         <v>0</v>
       </c>
       <c r="X32" t="s">
         <v>44</v>
       </c>
       <c r="Y32" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+    <row r="33" spans="1:35">
+      <c r="A33" s="9">
         <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
         <v>322</v>
       </c>
-      <c r="C33" t="s">
-        <v>323</v>
-      </c>
-      <c r="D33" t="s">
-        <v>324</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>2018</v>
       </c>
       <c r="F33" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -5103,86 +5099,86 @@
         <v>39</v>
       </c>
       <c r="J33" t="s">
+        <v>323</v>
+      </c>
+      <c r="K33" t="s">
+        <v>324</v>
+      </c>
+      <c r="L33" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
         <v>326</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="N33" s="2">
+        <v>1</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="M33" t="s">
+      <c r="S33" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" t="s">
         <v>328</v>
       </c>
-      <c r="N33" s="3">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6" t="s">
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="9">
+        <v>226</v>
+      </c>
+      <c r="B34" t="s">
         <v>329</v>
       </c>
-      <c r="S33" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" t="s">
+      <c r="C34" t="s">
         <v>330</v>
       </c>
-      <c r="Y33" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
-        <v>226</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>331</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F34" t="s">
         <v>332</v>
-      </c>
-      <c r="D34" t="s">
-        <v>333</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2021</v>
-      </c>
-      <c r="F34" t="s">
-        <v>334</v>
       </c>
       <c r="G34">
         <v>69</v>
@@ -5194,86 +5190,86 @@
         <v>39</v>
       </c>
       <c r="J34" t="s">
+        <v>333</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L34" t="s">
+        <v>334</v>
+      </c>
+      <c r="M34" t="s">
         <v>335</v>
       </c>
-      <c r="K34" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="N34" s="2">
+        <v>1</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="M34" t="s">
+      <c r="S34" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
         <v>337</v>
       </c>
-      <c r="N34" s="3">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="6" t="s">
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="9">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
         <v>338</v>
       </c>
-      <c r="S34" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U34" s="3">
-        <v>0</v>
-      </c>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" t="s">
+      <c r="C35" t="s">
         <v>339</v>
       </c>
-      <c r="Y34" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>340</v>
       </c>
-      <c r="C35" t="s">
-        <v>341</v>
-      </c>
-      <c r="D35" t="s">
-        <v>342</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>2018</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -5285,86 +5281,86 @@
         <v>39</v>
       </c>
       <c r="J35" t="s">
+        <v>341</v>
+      </c>
+      <c r="K35" t="s">
+        <v>342</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="s">
         <v>343</v>
       </c>
-      <c r="K35" t="s">
+      <c r="N35" s="2">
+        <v>1</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="S35" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" s="9">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
         <v>345</v>
       </c>
-      <c r="N35" s="3">
-        <v>1</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6" t="s">
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" t="s">
         <v>346</v>
       </c>
-      <c r="S35" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T35" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
-        <v>80</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="E36" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F36" t="s">
         <v>347</v>
-      </c>
-      <c r="C36" t="s">
-        <v>306</v>
-      </c>
-      <c r="D36" t="s">
-        <v>348</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F36" t="s">
-        <v>349</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -5376,89 +5372,89 @@
         <v>39</v>
       </c>
       <c r="J36" t="s">
+        <v>348</v>
+      </c>
+      <c r="K36" t="s">
+        <v>349</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" t="s">
         <v>350</v>
       </c>
-      <c r="K36" t="s">
+      <c r="N36" s="2">
+        <v>1</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M36" t="s">
+      <c r="S36" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
         <v>352</v>
       </c>
-      <c r="N36" s="3">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6" t="s">
+      <c r="Y36" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" s="9">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
         <v>353</v>
       </c>
-      <c r="S36" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U36" s="3">
-        <v>0</v>
-      </c>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3">
-        <v>0</v>
-      </c>
-      <c r="X36" t="s">
+      <c r="C37" t="s">
         <v>354</v>
       </c>
-      <c r="Y36" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
-        <v>86</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>355</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F37" t="s">
         <v>356</v>
       </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
         <v>357</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F37" t="s">
-        <v>358</v>
-      </c>
-      <c r="G37" t="s">
-        <v>359</v>
       </c>
       <c r="H37">
         <v>52</v>
@@ -5467,86 +5463,86 @@
         <v>39</v>
       </c>
       <c r="J37" t="s">
+        <v>358</v>
+      </c>
+      <c r="K37" t="s">
+        <v>359</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="s">
         <v>360</v>
       </c>
-      <c r="K37" t="s">
+      <c r="N37" s="2">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M37" t="s">
+      <c r="S37" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" s="9">
+        <v>259</v>
+      </c>
+      <c r="B38" t="s">
         <v>362</v>
       </c>
-      <c r="N37" s="3">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>0</v>
-      </c>
-      <c r="R37" s="6" t="s">
+      <c r="C38" t="s">
         <v>363</v>
       </c>
-      <c r="S37" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U37" s="3">
-        <v>0</v>
-      </c>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3">
-        <v>0</v>
-      </c>
-      <c r="X37" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI37" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
-        <v>259</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>364</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F38" t="s">
         <v>365</v>
-      </c>
-      <c r="D38" t="s">
-        <v>366</v>
-      </c>
-      <c r="E38" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F38" t="s">
-        <v>367</v>
       </c>
       <c r="G38">
         <v>314</v>
@@ -5558,177 +5554,177 @@
         <v>39</v>
       </c>
       <c r="J38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K38" t="s">
+        <v>367</v>
+      </c>
+      <c r="L38" t="s">
         <v>368</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>369</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" s="2">
+        <v>1</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="M38" t="s">
+      <c r="S38" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U38" s="2">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35">
+      <c r="A39" s="9">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>371</v>
       </c>
-      <c r="N38" s="3">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="6" t="s">
+      <c r="C39" t="s">
         <v>372</v>
       </c>
-      <c r="S38" s="5">
+      <c r="D39" t="s">
+        <v>373</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>374</v>
+      </c>
+      <c r="K39" t="s">
+        <v>375</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" t="s">
+        <v>376</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="S39" s="4">
         <v>45261</v>
       </c>
-      <c r="T38" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U38" s="3">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3">
-        <v>0</v>
-      </c>
-      <c r="X38" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>373</v>
-      </c>
-      <c r="C39" t="s">
-        <v>374</v>
-      </c>
-      <c r="D39" t="s">
-        <v>375</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I39" t="s">
-        <v>273</v>
-      </c>
-      <c r="J39" t="s">
-        <v>376</v>
-      </c>
-      <c r="K39" t="s">
-        <v>377</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M39" t="s">
-        <v>378</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0</v>
-      </c>
-      <c r="R39" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="S39" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U39" s="3">
-        <v>0</v>
-      </c>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3">
+      <c r="T39" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0</v>
+      </c>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2">
         <v>0</v>
       </c>
       <c r="X39" t="s">
         <v>44</v>
       </c>
       <c r="Y39" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+    <row r="40" spans="1:35">
+      <c r="A40" s="9">
         <v>89</v>
       </c>
       <c r="B40" t="s">
+        <v>378</v>
+      </c>
+      <c r="C40" t="s">
+        <v>379</v>
+      </c>
+      <c r="D40" t="s">
         <v>380</v>
       </c>
-      <c r="C40" t="s">
-        <v>381</v>
-      </c>
-      <c r="D40" t="s">
-        <v>382</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>2018</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -5740,89 +5736,89 @@
         <v>39</v>
       </c>
       <c r="J40" t="s">
+        <v>381</v>
+      </c>
+      <c r="K40" t="s">
+        <v>382</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" t="s">
         <v>383</v>
       </c>
-      <c r="K40" t="s">
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="L40" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M40" t="s">
+      <c r="S40" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2">
+        <v>1</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35">
+      <c r="A41" s="9">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
         <v>385</v>
       </c>
-      <c r="N40" s="3">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="6" t="s">
+      <c r="C41" t="s">
         <v>386</v>
       </c>
-      <c r="S40" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T40" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U40" s="3">
-        <v>0</v>
-      </c>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3">
-        <v>1</v>
-      </c>
-      <c r="X40" s="3"/>
-      <c r="Y40" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>132</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>387</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
         <v>388</v>
-      </c>
-      <c r="D41" t="s">
-        <v>389</v>
-      </c>
-      <c r="E41" s="3">
-        <v>2020</v>
-      </c>
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s">
-        <v>390</v>
       </c>
       <c r="H41">
         <v>112</v>
@@ -5831,272 +5827,272 @@
         <v>39</v>
       </c>
       <c r="J41" t="s">
+        <v>389</v>
+      </c>
+      <c r="K41" t="s">
+        <v>390</v>
+      </c>
+      <c r="L41" t="s">
         <v>391</v>
       </c>
-      <c r="K41" t="s">
+      <c r="M41" t="s">
         <v>392</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="M41" t="s">
+      <c r="S41" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2">
+        <v>1</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="N41" s="3">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="6" t="s">
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35">
+      <c r="A42" s="9">
+        <v>247</v>
+      </c>
+      <c r="B42" t="s">
         <v>395</v>
       </c>
-      <c r="S41" s="5">
+      <c r="C42" t="s">
+        <v>396</v>
+      </c>
+      <c r="D42" t="s">
+        <v>397</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1994</v>
+      </c>
+      <c r="F42" t="s">
+        <v>398</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I42" t="s">
+        <v>399</v>
+      </c>
+      <c r="J42" t="s">
+        <v>400</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s">
+        <v>401</v>
+      </c>
+      <c r="M42" t="s">
+        <v>402</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="S42" s="4">
         <v>45261</v>
       </c>
-      <c r="T41" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3">
-        <v>1</v>
-      </c>
-      <c r="X41" s="3"/>
-      <c r="Y41" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="3">
+      <c r="T42" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
-        <v>247</v>
-      </c>
-      <c r="B42" t="s">
-        <v>397</v>
-      </c>
-      <c r="C42" t="s">
-        <v>398</v>
-      </c>
-      <c r="D42" t="s">
-        <v>399</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1994</v>
-      </c>
-      <c r="F42" t="s">
-        <v>400</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I42" t="s">
-        <v>401</v>
-      </c>
-      <c r="J42" t="s">
-        <v>402</v>
-      </c>
-      <c r="K42" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L42" t="s">
-        <v>403</v>
-      </c>
-      <c r="M42" t="s">
+    <row r="43" spans="1:35">
+      <c r="A43" s="9">
+        <v>251</v>
+      </c>
+      <c r="B43" t="s">
         <v>404</v>
       </c>
-      <c r="N42" s="3">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="6" t="s">
+      <c r="C43" t="s">
         <v>405</v>
       </c>
-      <c r="S42" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T42" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
-        <v>251</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>406</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" s="2">
+        <v>2017</v>
+      </c>
+      <c r="F43" t="s">
         <v>407</v>
       </c>
-      <c r="D43" t="s">
-        <v>408</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2017</v>
-      </c>
-      <c r="F43" t="s">
-        <v>409</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>327</v>
+      <c r="G43" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="H43">
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
+        <v>408</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L43" t="s">
+        <v>409</v>
+      </c>
+      <c r="M43" t="s">
         <v>410</v>
       </c>
-      <c r="K43" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="N43" s="2">
+        <v>1</v>
+      </c>
+      <c r="O43" s="2">
+        <v>0</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>0</v>
+      </c>
+      <c r="R43" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="M43" t="s">
+      <c r="S43" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0</v>
+      </c>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35">
+      <c r="A44" s="9">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
         <v>412</v>
       </c>
-      <c r="N43" s="3">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="6" t="s">
+      <c r="C44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D44" t="s">
         <v>413</v>
       </c>
-      <c r="S43" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T43" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>111</v>
-      </c>
-      <c r="B44" t="s">
-        <v>414</v>
-      </c>
-      <c r="C44" t="s">
-        <v>341</v>
-      </c>
-      <c r="D44" t="s">
-        <v>415</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>2021</v>
       </c>
       <c r="F44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -6108,86 +6104,86 @@
         <v>39</v>
       </c>
       <c r="J44" t="s">
+        <v>414</v>
+      </c>
+      <c r="K44" t="s">
+        <v>415</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M44" t="s">
         <v>416</v>
       </c>
-      <c r="K44" t="s">
+      <c r="N44" s="2">
+        <v>1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>0</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="S44" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T44" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35">
+      <c r="A45" s="9">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
         <v>418</v>
       </c>
-      <c r="N44" s="3">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="6" t="s">
+      <c r="C45" t="s">
         <v>419</v>
       </c>
-      <c r="S44" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T44" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI44" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
-        <v>118</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>420</v>
       </c>
-      <c r="C45" t="s">
-        <v>421</v>
-      </c>
-      <c r="D45" t="s">
-        <v>422</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>2007</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -6199,267 +6195,267 @@
         <v>39</v>
       </c>
       <c r="J45" t="s">
+        <v>421</v>
+      </c>
+      <c r="K45" t="s">
+        <v>422</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M45" t="s">
         <v>423</v>
       </c>
-      <c r="K45" t="s">
+      <c r="N45" s="2">
+        <v>1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="S45" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+      <c r="X45" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35">
+      <c r="A46" s="9">
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
         <v>425</v>
       </c>
-      <c r="N45" s="3">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="6" t="s">
+      <c r="C46" t="s">
         <v>426</v>
       </c>
-      <c r="S45" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T45" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH45" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI45" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
-        <v>237</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>427</v>
       </c>
-      <c r="C46" t="s">
-        <v>428</v>
-      </c>
-      <c r="D46" t="s">
-        <v>429</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>2021</v>
       </c>
       <c r="F46" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>327</v>
+      <c r="G46" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="I46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J46" t="s">
+        <v>428</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L46" t="s">
+        <v>429</v>
+      </c>
+      <c r="M46" t="s">
         <v>430</v>
       </c>
-      <c r="K46" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L46" t="s">
+      <c r="N46" s="2">
+        <v>1</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="S46" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2">
+        <v>1</v>
+      </c>
+      <c r="X46" s="2"/>
+      <c r="Y46" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35">
+      <c r="A47" s="9">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
         <v>431</v>
       </c>
-      <c r="M46" t="s">
+      <c r="C47" t="s">
+        <v>304</v>
+      </c>
+      <c r="D47" t="s">
         <v>432</v>
       </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="S46" s="5">
+      <c r="E47" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" t="s">
+        <v>271</v>
+      </c>
+      <c r="J47" t="s">
+        <v>433</v>
+      </c>
+      <c r="K47" t="s">
+        <v>434</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M47" t="s">
+        <v>435</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="S47" s="4">
         <v>45261</v>
       </c>
-      <c r="T46" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3">
-        <v>1</v>
-      </c>
-      <c r="X46" s="3"/>
-      <c r="Y46" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH46" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="3">
+      <c r="T47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
-        <v>84</v>
-      </c>
-      <c r="B47" t="s">
-        <v>433</v>
-      </c>
-      <c r="C47" t="s">
-        <v>306</v>
-      </c>
-      <c r="D47" t="s">
-        <v>434</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2021</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I47" t="s">
-        <v>273</v>
-      </c>
-      <c r="J47" t="s">
-        <v>435</v>
-      </c>
-      <c r="K47" t="s">
-        <v>436</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M47" t="s">
+    <row r="48" spans="1:35">
+      <c r="A48" s="9">
+        <v>262</v>
+      </c>
+      <c r="B48" t="s">
         <v>437</v>
       </c>
-      <c r="N47" s="3">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="6" t="s">
+      <c r="C48" t="s">
         <v>438</v>
       </c>
-      <c r="S47" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T47" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3">
-        <v>1</v>
-      </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI47" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
-        <v>262</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>439</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" s="2">
+        <v>2023</v>
+      </c>
+      <c r="F48" t="s">
         <v>440</v>
       </c>
-      <c r="D48" t="s">
-        <v>441</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2023</v>
-      </c>
-      <c r="F48" t="s">
-        <v>442</v>
-      </c>
       <c r="G48" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H48">
         <v>128</v>
@@ -6468,93 +6464,93 @@
         <v>39</v>
       </c>
       <c r="J48" t="s">
+        <v>441</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s">
+        <v>442</v>
+      </c>
+      <c r="M48" t="s">
         <v>443</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="M48" t="s">
+      <c r="S48" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T48" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="N48" s="3">
-        <v>1</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="6" t="s">
+      <c r="AF48" s="10"/>
+      <c r="AG48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35">
+      <c r="A49" s="9">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
         <v>446</v>
       </c>
-      <c r="S48" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T48" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3">
-        <v>1</v>
-      </c>
-      <c r="X48" s="3"/>
-      <c r="Y48" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="1" t="s">
+      <c r="C49" t="s">
         <v>447</v>
       </c>
-      <c r="AF48" s="1"/>
-      <c r="AG48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="3">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
-        <v>99</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>448</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F49" t="s">
+        <v>356</v>
+      </c>
+      <c r="G49" t="s">
         <v>449</v>
-      </c>
-      <c r="D49" t="s">
-        <v>450</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2015</v>
-      </c>
-      <c r="F49" t="s">
-        <v>358</v>
-      </c>
-      <c r="G49" t="s">
-        <v>451</v>
       </c>
       <c r="H49">
         <v>47</v>
@@ -6563,177 +6559,177 @@
         <v>39</v>
       </c>
       <c r="J49" t="s">
+        <v>450</v>
+      </c>
+      <c r="K49" t="s">
+        <v>451</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M49" t="s">
         <v>452</v>
       </c>
-      <c r="K49" t="s">
+      <c r="N49" s="2">
+        <v>1</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="L49" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M49" t="s">
-        <v>454</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="S49" s="5">
+      <c r="S49" s="4">
         <v>45261</v>
       </c>
-      <c r="T49" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3">
+      <c r="T49" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0</v>
+      </c>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2">
         <v>0</v>
       </c>
       <c r="X49" t="s">
         <v>44</v>
       </c>
       <c r="Y49" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH49" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI49" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+    <row r="50" spans="1:35">
+      <c r="A50" s="9">
         <v>225</v>
       </c>
       <c r="B50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C50" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" t="s">
         <v>456</v>
       </c>
-      <c r="C50" t="s">
-        <v>457</v>
-      </c>
-      <c r="D50" t="s">
-        <v>458</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>2022</v>
       </c>
       <c r="F50" t="s">
         <v>38</v>
       </c>
-      <c r="G50" s="9" t="s">
-        <v>327</v>
+      <c r="G50" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="H50" t="s">
+        <v>457</v>
+      </c>
+      <c r="I50" t="s">
+        <v>271</v>
+      </c>
+      <c r="J50" t="s">
+        <v>458</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M50" t="s">
         <v>459</v>
       </c>
-      <c r="I50" t="s">
-        <v>273</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="N50" s="2">
+        <v>1</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="K50" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="S50" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U50" s="2">
+        <v>0</v>
+      </c>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+      <c r="X50" t="s">
         <v>461</v>
       </c>
-      <c r="N50" s="3">
-        <v>1</v>
-      </c>
-      <c r="O50" s="3">
-        <v>0</v>
-      </c>
-      <c r="P50" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>0</v>
-      </c>
-      <c r="R50" s="6" t="s">
+      <c r="Y50" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35">
+      <c r="A51" s="9">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>462</v>
       </c>
-      <c r="S50" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T50" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U50" s="3">
-        <v>0</v>
-      </c>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3">
-        <v>0</v>
-      </c>
-      <c r="X50" t="s">
+      <c r="C51" t="s">
         <v>463</v>
       </c>
-      <c r="Y50" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH50" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI50" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
-        <v>2</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>464</v>
       </c>
-      <c r="C51" t="s">
-        <v>465</v>
-      </c>
-      <c r="D51" t="s">
-        <v>466</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>2000</v>
       </c>
       <c r="F51" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G51">
         <v>235</v>
@@ -6745,89 +6741,89 @@
         <v>39</v>
       </c>
       <c r="J51" t="s">
+        <v>465</v>
+      </c>
+      <c r="K51" t="s">
+        <v>466</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M51" t="s">
         <v>467</v>
       </c>
-      <c r="K51" t="s">
+      <c r="N51" s="2">
+        <v>1</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M51" t="s">
+      <c r="S51" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35">
+      <c r="A52" s="9">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>469</v>
       </c>
-      <c r="N51" s="3">
-        <v>1</v>
-      </c>
-      <c r="O51" s="3">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>0</v>
-      </c>
-      <c r="R51" s="6" t="s">
+      <c r="C52" t="s">
         <v>470</v>
       </c>
-      <c r="S51" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T51" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U51" s="3">
-        <v>0</v>
-      </c>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3">
-        <v>0</v>
-      </c>
-      <c r="X51" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH51" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI51" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>471</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F52" t="s">
         <v>472</v>
       </c>
-      <c r="D52" t="s">
-        <v>473</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F52" t="s">
-        <v>474</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>327</v>
+      <c r="G52" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="H52">
         <v>122</v>
@@ -6836,86 +6832,86 @@
         <v>39</v>
       </c>
       <c r="J52" t="s">
+        <v>473</v>
+      </c>
+      <c r="K52" t="s">
+        <v>474</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M52" t="s">
         <v>475</v>
       </c>
-      <c r="K52" t="s">
+      <c r="N52" s="2">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
+      <c r="R52" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M52" t="s">
-        <v>477</v>
-      </c>
-      <c r="N52" s="3">
-        <v>1</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="S52" s="5">
+      <c r="S52" s="4">
         <v>45261</v>
       </c>
-      <c r="T52" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3">
+      <c r="T52" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0</v>
+      </c>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2">
         <v>0</v>
       </c>
       <c r="X52" t="s">
         <v>44</v>
       </c>
       <c r="Y52" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI52" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+    <row r="53" spans="1:35">
+      <c r="A53" s="9">
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D53" t="s">
-        <v>480</v>
-      </c>
-      <c r="E53" s="3">
+        <v>478</v>
+      </c>
+      <c r="E53" s="2">
         <v>2009</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G53">
         <v>268</v>
@@ -6927,176 +6923,176 @@
         <v>39</v>
       </c>
       <c r="J53" t="s">
+        <v>479</v>
+      </c>
+      <c r="K53" t="s">
+        <v>480</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M53" t="s">
         <v>481</v>
       </c>
-      <c r="K53" t="s">
+      <c r="N53" s="2">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>0</v>
+      </c>
+      <c r="R53" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M53" t="s">
+      <c r="S53" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35">
+      <c r="A54" s="9">
+        <v>140</v>
+      </c>
+      <c r="B54" t="s">
         <v>483</v>
       </c>
-      <c r="N53" s="3">
-        <v>1</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-      <c r="R53" s="6" t="s">
+      <c r="C54" t="s">
         <v>484</v>
       </c>
-      <c r="S53" s="5">
+      <c r="D54" t="s">
+        <v>485</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2021</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I54" t="s">
+        <v>486</v>
+      </c>
+      <c r="J54" t="s">
+        <v>487</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M54" t="s">
+        <v>488</v>
+      </c>
+      <c r="N54" s="2">
+        <v>1</v>
+      </c>
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>0</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="S54" s="4">
         <v>45261</v>
       </c>
-      <c r="T53" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U53" s="3">
-        <v>0</v>
-      </c>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3">
-        <v>0</v>
-      </c>
-      <c r="X53" t="s">
+      <c r="T54" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2">
+        <v>1</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35">
+      <c r="A55" s="9">
         <v>208</v>
       </c>
-      <c r="Y53" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
-        <v>140</v>
-      </c>
-      <c r="B54" t="s">
-        <v>485</v>
-      </c>
-      <c r="C54" t="s">
-        <v>486</v>
-      </c>
-      <c r="D54" t="s">
-        <v>487</v>
-      </c>
-      <c r="E54" s="3">
-        <v>2021</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I54" t="s">
-        <v>488</v>
-      </c>
-      <c r="J54" t="s">
-        <v>489</v>
-      </c>
-      <c r="K54" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M54" t="s">
-        <v>490</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="6" t="s">
+      <c r="B55" t="s">
         <v>491</v>
       </c>
-      <c r="S54" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T54" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3">
-        <v>1</v>
-      </c>
-      <c r="X54" s="3"/>
-      <c r="Y54" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="1" t="s">
+      <c r="C55" t="s">
         <v>492</v>
       </c>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
-        <v>208</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>493</v>
       </c>
-      <c r="C55" t="s">
-        <v>494</v>
-      </c>
-      <c r="D55" t="s">
-        <v>495</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <v>2020</v>
       </c>
       <c r="F55" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -7108,172 +7104,172 @@
         <v>39</v>
       </c>
       <c r="J55" t="s">
+        <v>494</v>
+      </c>
+      <c r="K55" t="s">
+        <v>495</v>
+      </c>
+      <c r="L55" t="s">
         <v>496</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
         <v>497</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" s="2">
+        <v>1</v>
+      </c>
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="M55" t="s">
+      <c r="S55" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35">
+      <c r="A56" s="9">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
         <v>499</v>
       </c>
-      <c r="N55" s="3">
-        <v>1</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0</v>
-      </c>
-      <c r="P55" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>0</v>
-      </c>
-      <c r="R55" s="6" t="s">
+      <c r="C56" t="s">
         <v>500</v>
       </c>
-      <c r="S55" s="5">
+      <c r="D56" t="s">
+        <v>501</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2008</v>
+      </c>
+      <c r="F56" t="s">
+        <v>502</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I56" t="s">
+        <v>271</v>
+      </c>
+      <c r="J56" t="s">
+        <v>503</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M56" t="s">
+        <v>504</v>
+      </c>
+      <c r="N56" s="2">
+        <v>1</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="S56" s="4">
         <v>45261</v>
       </c>
-      <c r="T55" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U55" s="3">
-        <v>0</v>
-      </c>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3">
-        <v>0</v>
-      </c>
-      <c r="X55" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH55" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI55" s="3">
+      <c r="T56" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2">
+        <v>1</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="2">
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>264</v>
-      </c>
-      <c r="B56" t="s">
-        <v>501</v>
-      </c>
-      <c r="C56" t="s">
-        <v>502</v>
-      </c>
-      <c r="D56" t="s">
-        <v>503</v>
-      </c>
-      <c r="E56" s="3">
-        <v>2008</v>
-      </c>
-      <c r="F56" t="s">
-        <v>504</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="I56" t="s">
-        <v>273</v>
-      </c>
-      <c r="J56" t="s">
-        <v>505</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M56" t="s">
+    <row r="57" spans="1:35">
+      <c r="A57" s="9">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
         <v>506</v>
       </c>
-      <c r="N56" s="3">
-        <v>1</v>
-      </c>
-      <c r="O56" s="3">
-        <v>0</v>
-      </c>
-      <c r="P56" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>0</v>
-      </c>
-      <c r="R56" s="6" t="s">
+      <c r="C57" t="s">
         <v>507</v>
       </c>
-      <c r="S56" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T56" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U56" s="3">
-        <v>0</v>
-      </c>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3">
-        <v>1</v>
-      </c>
-      <c r="X56" s="3"/>
-      <c r="Y56" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>508</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F57" t="s">
         <v>509</v>
-      </c>
-      <c r="D57" t="s">
-        <v>510</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2022</v>
-      </c>
-      <c r="F57" t="s">
-        <v>511</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -7285,86 +7281,86 @@
         <v>39</v>
       </c>
       <c r="J57" t="s">
+        <v>510</v>
+      </c>
+      <c r="K57" t="s">
+        <v>511</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M57" t="s">
         <v>512</v>
       </c>
-      <c r="K57" t="s">
+      <c r="N57" s="2">
+        <v>1</v>
+      </c>
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M57" t="s">
+      <c r="S57" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35">
+      <c r="A58" s="9">
+        <v>234</v>
+      </c>
+      <c r="B58" t="s">
         <v>514</v>
       </c>
-      <c r="N57" s="3">
-        <v>1</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="6" t="s">
+      <c r="C58" t="s">
         <v>515</v>
       </c>
-      <c r="S57" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T57" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI57" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
-        <v>234</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>516</v>
       </c>
-      <c r="C58" t="s">
-        <v>517</v>
-      </c>
-      <c r="D58" t="s">
-        <v>518</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>1997</v>
       </c>
       <c r="F58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -7376,83 +7372,83 @@
         <v>39</v>
       </c>
       <c r="J58" t="s">
+        <v>517</v>
+      </c>
+      <c r="K58" t="s">
+        <v>518</v>
+      </c>
+      <c r="M58" t="s">
         <v>519</v>
       </c>
-      <c r="K58" t="s">
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>0</v>
+      </c>
+      <c r="R58" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="M58" t="s">
+      <c r="S58" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T58" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35">
+      <c r="A59" s="9">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
         <v>521</v>
       </c>
-      <c r="N58" s="3">
-        <v>1</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="6" t="s">
+      <c r="C59" t="s">
         <v>522</v>
       </c>
-      <c r="S58" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T58" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
-        <v>183</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>523</v>
       </c>
-      <c r="C59" t="s">
-        <v>524</v>
-      </c>
-      <c r="D59" t="s">
-        <v>525</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>1998</v>
       </c>
       <c r="F59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G59">
         <v>3</v>
@@ -7464,139 +7460,139 @@
         <v>39</v>
       </c>
       <c r="J59" t="s">
+        <v>524</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="M59" t="s">
+        <v>525</v>
+      </c>
+      <c r="N59" s="2">
+        <v>1</v>
+      </c>
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>0</v>
+      </c>
+      <c r="R59" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="M59" t="s">
+      <c r="S59" s="4">
+        <v>45261</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+      <c r="X59" t="s">
         <v>527</v>
       </c>
-      <c r="N59" s="3">
-        <v>1</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="6" t="s">
+      <c r="Y59" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:35">
+      <c r="A60" s="7"/>
+      <c r="B60" t="s">
         <v>528</v>
       </c>
-      <c r="S59" s="5">
+      <c r="C60" t="s">
+        <v>529</v>
+      </c>
+      <c r="D60" t="s">
+        <v>530</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2011</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" t="s">
+        <v>533</v>
+      </c>
+      <c r="N60" s="2">
+        <v>1</v>
+      </c>
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>0</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="S60" s="4">
         <v>45261</v>
       </c>
-      <c r="T59" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH59" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A60" s="11"/>
-      <c r="B60" t="s">
-        <v>530</v>
-      </c>
-      <c r="C60" t="s">
-        <v>531</v>
-      </c>
-      <c r="D60" t="s">
-        <v>532</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2011</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" t="s">
-        <v>535</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1</v>
-      </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="S60" s="5">
-        <v>45261</v>
-      </c>
-      <c r="T60" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3">
-        <v>1</v>
-      </c>
-      <c r="X60" s="3"/>
+      <c r="T60" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="U60" s="2">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2">
+        <v>1</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH60" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="3">
+        <v>266</v>
+      </c>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="2">
         <v>222</v>
       </c>
     </row>
